--- a/code/Screener/reports/2022-07-15_decision_metrics_df.xlsx
+++ b/code/Screener/reports/2022-07-15_decision_metrics_df.xlsx
@@ -973,6 +973,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>595</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10353675" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>622</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10315575" cy="4838700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1265,7 +1315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1838,6 +1888,250 @@
         <v>1</v>
       </c>
       <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1947,7 +2241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1975,6 +2269,16 @@
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,6 +2456,56 @@
           <t>b</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>remove</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>not_remove</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>best_to_follow</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>my_string</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>t_</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>index_</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2484,6 +2838,254 @@
       </c>
       <c r="AE4" t="n">
         <v>0.9859267780170259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unnamed: 0,SYMBOL,exp_return,discounted_return,qtr_return,sell_date,stop_loss_price,days_delta,disc_rtn,qtr_rtn,outer_cv_avg_abs_err_n11,outer_cv_std_n11,mean_revert_flag,yhat_upper,yhat_lower,90d_upper,21dBOLD,90dSMA,90dSDev,21dBOLU,21dMA-TP,90d_lower,Adj Close,Date,Index Symbol,MIN_Lookback_1_Months,MIN_Lookback_2_Months,MIN_Lookback_One_Year,Market Index,Sector,Sector Symbol,adf,hurst,risk_per_share,risk_trend_factor,sector_risk_trend_factor,volume_factor,outer_cv_avg_abs_err_n11_ratio,outer_cv_std_n11_ratio,</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-07-16 15:44:58</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\code</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>..\data\\interim\\Business Cycles-2.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AWHAETP</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25.0042277619534</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2725588811642105</v>
+      </c>
+      <c r="L5" t="n">
+        <v>222.4253656575287</v>
+      </c>
+      <c r="M5" t="n">
+        <v>95.08377751526875</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>197.8430095399954</v>
+      </c>
+      <c r="S5" t="n">
+        <v>24.98327344733859</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.254103901426333e-10</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8.212685127145461</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.9859267780170259</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>CPIAUCSL</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.9341681412934574</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.9859267780170259</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>CSUSHPINSA</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>CPIAUCSL</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>DCOILWTICO</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>AWHAETP UNRATE</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>UNRATE AWHAETP</t>
+        </is>
+      </c>
+      <c r="AL5" t="n">
+        <v>209</v>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>AWHAETP</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>UNRATE</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>CONSUMER CPIAUCSL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unnamed: 0,SYMBOL,exp_return,discounted_return,qtr_return,sell_date,stop_loss_price,days_delta,disc_rtn,qtr_rtn,outer_cv_avg_abs_err_n11,outer_cv_std_n11,mean_revert_flag,yhat_upper,yhat_lower,90d_upper,21dBOLD,90dSMA,90dSDev,21dBOLU,21dMA-TP,90d_lower,Adj Close,Date,Index Symbol,MIN_Lookback_1_Months,MIN_Lookback_2_Months,MIN_Lookback_One_Year,Market Index,Sector,Sector Symbol,adf,hurst,risk_per_share,risk_trend_factor,sector_risk_trend_factor,volume_factor,outer_cv_avg_abs_err_n11_ratio,outer_cv_std_n11_ratio,</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2022-07-16 16:27:49</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\code</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>..\data\\interim\\Business Cycles-2.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>WPU101</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.0042277619534</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2725588811642105</v>
+      </c>
+      <c r="L6" t="n">
+        <v>222.4253656575287</v>
+      </c>
+      <c r="M6" t="n">
+        <v>95.08377751526876</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>197.8430095399954</v>
+      </c>
+      <c r="S6" t="n">
+        <v>24.98327344733859</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.254103901426333e-10</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.128404922900172</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +3099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2618,6 +3220,62 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2022-07-16 10:25:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fbprophet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EDA-fbprophet-nested-CV</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AnalyzeSP1500.ipynb</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-07-16 15:44:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fbprophet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EDA-fbprophet-nested-CV</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AnalyzeSP1500.ipynb</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022-07-16 16:27:49</t>
         </is>
       </c>
     </row>
@@ -2840,78 +3498,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MANT</t>
+          <t>CYTK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MANT</t>
+          <t>CYTK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1085190258769254</v>
+        <v>0.3255823820832559</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0162762557367314</v>
+        <v>0.0040345727278463</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2209684048182522</v>
+        <v>1.448362953632182</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>78.47977052326388</v>
+        <v>45.24783612122645</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0162762557367314</v>
+        <v>0.0040345727278463</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2209684048182522</v>
+        <v>1.448362953632182</v>
       </c>
       <c r="K2" t="n">
-        <v>153.6975234678773</v>
+        <v>45.59474932409967</v>
       </c>
       <c r="L2" t="n">
-        <v>114.7183422885</v>
+        <v>51.463280007163</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>96.7136560206405</v>
+        <v>74.19117687847279</v>
       </c>
       <c r="O2" t="n">
-        <v>74.57294864503801</v>
+        <v>43.9693350021365</v>
       </c>
       <c r="P2" t="n">
-        <v>103.0466027153237</v>
+        <v>47.61456090256825</v>
       </c>
       <c r="Q2" t="n">
-        <v>94.616779274759</v>
+        <v>38.88556814055411</v>
       </c>
       <c r="R2" t="n">
-        <v>90.8864284697033</v>
+        <v>40.76492084018768</v>
       </c>
       <c r="S2" t="n">
-        <v>6.080087122810189</v>
+        <v>3.424820031190287</v>
       </c>
       <c r="T2" t="n">
-        <v>95.9868709545588</v>
+        <v>49.20800344666027</v>
       </c>
       <c r="U2" t="n">
-        <v>95.3018251146589</v>
+        <v>44.04678579360719</v>
       </c>
       <c r="V2" t="n">
-        <v>78.72625422408292</v>
+        <v>33.91528077780711</v>
       </c>
       <c r="W2" t="n">
-        <v>95.56999969482422</v>
+        <v>43.16999816894531</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -2924,13 +3582,13 @@
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>95.98000335693359</v>
+        <v>47.90000152587891</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.73000335693359</v>
+        <v>47.90000152587891</v>
       </c>
       <c r="AB2" t="n">
-        <v>92</v>
+        <v>30.13999938964844</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -2939,116 +3597,116 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF2" t="n">
-        <v>0.5171584908354063</v>
+        <v>0.9938321013510342</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.3683446035966851</v>
+        <v>0.347079503863166</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.900001525878906</v>
+        <v>12.59999847412109</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.105257451703964</v>
+        <v>0.2833327379175505</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>-6.166308229659177</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK2" t="n">
-        <v>1.820362944633907</v>
+        <v>1.731017840562648</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.608219357106487</v>
+        <v>1.056167506555481</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.200359345556353</v>
+        <v>1.192107532776861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MUSA</t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MUSA</t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0596213278916399</v>
+        <v>0.046017911222257</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000689661593715</v>
+        <v>0.0064479115725861</v>
       </c>
       <c r="E3" t="n">
-        <v>1.065481700190683</v>
+        <v>1.806341574325072</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>232.0180797804648</v>
+        <v>85.23291421607533</v>
       </c>
       <c r="H3" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000689661593715</v>
+        <v>0.0064479115725861</v>
       </c>
       <c r="J3" t="n">
-        <v>1.065481700190683</v>
+        <v>1.806341574325072</v>
       </c>
       <c r="K3" t="n">
-        <v>411.4624611823946</v>
+        <v>107.0571857809324</v>
       </c>
       <c r="L3" t="n">
-        <v>467.5989498127477</v>
+        <v>115.6196588214524</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>321.1538949241204</v>
+        <v>100.0264720924106</v>
       </c>
       <c r="O3" t="n">
-        <v>251.941926373268</v>
+        <v>80.44114591907319</v>
       </c>
       <c r="P3" t="n">
-        <v>262.2325259870004</v>
+        <v>89.07480980331303</v>
       </c>
       <c r="Q3" t="n">
-        <v>211.6096494888181</v>
+        <v>76.7679749259236</v>
       </c>
       <c r="R3" t="n">
-        <v>241.2813156370133</v>
+        <v>82.96658739967951</v>
       </c>
       <c r="S3" t="n">
-        <v>10.47560517499354</v>
+        <v>3.054111201816757</v>
       </c>
       <c r="T3" t="n">
-        <v>268.4685214086506</v>
+        <v>89.94297837782221</v>
       </c>
       <c r="U3" t="n">
-        <v>240.0390854487344</v>
+        <v>83.35547665187291</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3301052870262</v>
+        <v>76.85836499604599</v>
       </c>
       <c r="W3" t="n">
-        <v>269.3399963378906</v>
+        <v>85.76000213623047</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -3057,135 +3715,135 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>262.5799865722656</v>
+        <v>89.91999816894531</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.8599853515625</v>
+        <v>89.91999816894531</v>
       </c>
       <c r="AB3" t="n">
-        <v>159</v>
+        <v>75.58999633789062</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP500</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF3" t="n">
-        <v>0.998524433669738</v>
+        <v>0.4941688791997224</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.4140872917593018</v>
+        <v>0.3919346404147332</v>
       </c>
       <c r="AH3" t="n">
-        <v>52.46998596191406</v>
+        <v>13.90999603271484</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.41242711941496</v>
+        <v>0.1329988684798413</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>-8.056900017144713</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK3" t="n">
-        <v>1.421214909001477</v>
+        <v>0.940040172243104</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.527669365028911</v>
+        <v>1.248334691163734</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.73609176568837</v>
+        <v>1.348176958272337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>BJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>BJ</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.02710127418208</v>
+        <v>0.2196391368038932</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003183904106096</v>
+        <v>0.0035519186205754</v>
       </c>
       <c r="E4" t="n">
-        <v>1.029720344964386</v>
+        <v>1.385689073448017</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>147.7899200440788</v>
+        <v>68.49587786268265</v>
       </c>
       <c r="H4" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003183904106096</v>
+        <v>0.0035519186205754</v>
       </c>
       <c r="J4" t="n">
-        <v>1.029720344964386</v>
+        <v>1.385689073448017</v>
       </c>
       <c r="K4" t="n">
-        <v>420.4074951064169</v>
+        <v>78.41755338951265</v>
       </c>
       <c r="L4" t="n">
-        <v>337.7797690641702</v>
+        <v>82.23624516034496</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>201.2843794288873</v>
+        <v>98.35455046792758</v>
       </c>
       <c r="O4" t="n">
-        <v>150.2199985963747</v>
+        <v>74.20863663974767</v>
       </c>
       <c r="P4" t="n">
-        <v>179.960752044865</v>
+        <v>71.37735312669092</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.2320969742164</v>
+        <v>56.57344941918856</v>
       </c>
       <c r="R4" t="n">
-        <v>158.9426591661241</v>
+        <v>62.62035724094936</v>
       </c>
       <c r="S4" t="n">
-        <v>10.5090464393704</v>
+        <v>4.378497942870778</v>
       </c>
       <c r="T4" t="n">
-        <v>170.5142532687617</v>
+        <v>70.56410650548436</v>
       </c>
       <c r="U4" t="n">
-        <v>158.873175121489</v>
+        <v>63.56877796233646</v>
       </c>
       <c r="V4" t="n">
-        <v>137.9245662873833</v>
+        <v>53.8633613552078</v>
       </c>
       <c r="W4" t="n">
-        <v>168.7599945068359</v>
+        <v>70.16000366210938</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -3194,21 +3852,21 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>177.1900024414062</v>
+        <v>74.08999633789062</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.1900024414062</v>
+        <v>74.08999633789062</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.370002746582</v>
+        <v>50.18000030517578</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>SP500</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -3222,16 +3880,16 @@
         </is>
       </c>
       <c r="AF4" t="n">
-        <v>0.7405838502457078</v>
+        <v>0.973190626172684</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.433787885947247</v>
+        <v>0.3768209226127056</v>
       </c>
       <c r="AH4" t="n">
-        <v>45.43000030517578</v>
+        <v>18.86999893188477</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6940342434362941</v>
+        <v>0.6422903387075352</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
@@ -3239,90 +3897,90 @@
         </is>
       </c>
       <c r="AK4" t="n">
-        <v>0.8479220236826441</v>
+        <v>1.473451313814642</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.491156131729949</v>
+        <v>1.117695970587055</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.001539346165881</v>
+        <v>1.172124299713478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>SAFM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>SAFM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1492909242964894</v>
+        <v>0.0105418973092409</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0039834892182073</v>
+        <v>0.0001664697110637</v>
       </c>
       <c r="E5" t="n">
-        <v>1.44159912973655</v>
+        <v>1.015431798021599</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>66.91932210887698</v>
+        <v>184.0612259203039</v>
       </c>
       <c r="H5" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0039834892182073</v>
+        <v>0.0001664697110637</v>
       </c>
       <c r="J5" t="n">
-        <v>1.44159912973655</v>
+        <v>1.015431798021599</v>
       </c>
       <c r="K5" t="n">
-        <v>23.80283356675433</v>
+        <v>789.1785400602955</v>
       </c>
       <c r="L5" t="n">
-        <v>28.15380489519953</v>
+        <v>1099.394022081432</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>86.52835937230638</v>
+        <v>239.7946587248009</v>
       </c>
       <c r="O5" t="n">
-        <v>72.3229856044703</v>
+        <v>193.1366388611816</v>
       </c>
       <c r="P5" t="n">
-        <v>72.39198521096198</v>
+        <v>222.40603401528</v>
       </c>
       <c r="Q5" t="n">
-        <v>63.73728192036821</v>
+        <v>206.3805502934993</v>
       </c>
       <c r="R5" t="n">
-        <v>68.31294332231793</v>
+        <v>199.7226713271368</v>
       </c>
       <c r="S5" t="n">
-        <v>2.039520944322018</v>
+        <v>11.3416813440716</v>
       </c>
       <c r="T5" t="n">
-        <v>72.16867068462196</v>
+        <v>220.6824668099079</v>
       </c>
       <c r="U5" t="n">
-        <v>67.95297630249509</v>
+        <v>213.5315085517036</v>
       </c>
       <c r="V5" t="n">
-        <v>64.23390143367389</v>
+        <v>177.0393086389936</v>
       </c>
       <c r="W5" t="n">
-        <v>68.69000244140625</v>
+        <v>211.9400024414062</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -3335,13 +3993,13 @@
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>72.06999969482422</v>
+        <v>210.2200012207031</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.06999969482422</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>56.86000061035156</v>
+        <v>195.25</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -3350,116 +4008,116 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>VDC</t>
         </is>
       </c>
       <c r="AF5" t="n">
-        <v>0.8814440211893415</v>
+        <v>0.7399683880660635</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3627692483073442</v>
+        <v>0.4768869016072743</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.630001068115234</v>
+        <v>37.86000061035156</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.5874862916240663</v>
+        <v>0.8016377605450281</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>-8.056900017144713</t>
+          <t>-2.4882150010950523</t>
         </is>
       </c>
       <c r="AK5" t="n">
-        <v>1.041492810040387</v>
+        <v>1.752757188084119</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.3465254435979756</v>
+        <v>3.723594087805462</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.4098675774428048</v>
+        <v>5.18728889976952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NTUS</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NTUS</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.049144511392601</v>
+        <v>-0.0076098913706336</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0005997389570787</v>
+        <v>-0.0002182331646753</v>
       </c>
       <c r="E6" t="n">
-        <v>0.94630293278205</v>
+        <v>0.9801206111857896</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>24.12837760811261</v>
+        <v>738.8506825786008</v>
       </c>
       <c r="H6" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0005997389570787</v>
+        <v>-0.0002182331646753</v>
       </c>
       <c r="J6" t="n">
-        <v>0.94630293278205</v>
+        <v>0.9801206111857896</v>
       </c>
       <c r="K6" t="n">
-        <v>44.59590087788391</v>
+        <v>10838.92965723667</v>
       </c>
       <c r="L6" t="n">
-        <v>30.15814672022933</v>
+        <v>11003.96083266044</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>38.44916987630318</v>
+        <v>906.6714192107772</v>
       </c>
       <c r="O6" t="n">
-        <v>25.41097930619283</v>
+        <v>750.8966536096981</v>
       </c>
       <c r="P6" t="n">
-        <v>34.60124613677704</v>
+        <v>839.5976761330463</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.20295784770245</v>
+        <v>829.8329108194881</v>
       </c>
       <c r="R6" t="n">
-        <v>32.61996029293726</v>
+        <v>833.9667043534536</v>
       </c>
       <c r="S6" t="n">
-        <v>0.990642921919888</v>
+        <v>2.815485889796369</v>
       </c>
       <c r="T6" t="n">
-        <v>33.63624887812956</v>
+        <v>835.4203356695372</v>
       </c>
       <c r="U6" t="n">
-        <v>32.41960336291601</v>
+        <v>832.6266232445126</v>
       </c>
       <c r="V6" t="n">
-        <v>30.63867444909749</v>
+        <v>828.3357325738608</v>
       </c>
       <c r="W6" t="n">
-        <v>32.70000076293945</v>
+        <v>834.0999755859375</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -3468,135 +4126,135 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>33.93000030517578</v>
+        <v>862.8699951171875</v>
       </c>
       <c r="AA6" t="n">
-        <v>33.93000030517578</v>
+        <v>862.8699951171875</v>
       </c>
       <c r="AB6" t="n">
-        <v>29.70000076293945</v>
+        <v>737.8900146484375</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>VFH</t>
         </is>
       </c>
       <c r="AF6" t="n">
-        <v>0.1333149604532864</v>
+        <v>0.4680113008423242</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.4219494300562066</v>
+        <v>0.4650288070845225</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.780000686645508</v>
+        <v>9.0999755859375</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.1942448856654552</v>
+        <v>4.249453364991213</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>-5.692129772713492</t>
         </is>
       </c>
       <c r="AK6" t="n">
-        <v>1.264166273985766</v>
+        <v>1.522722136897645</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.363788985853073</v>
+        <v>12.99476078946358</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9222674622811956</v>
+        <v>13.19261617881046</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LNTH</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LNTH</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.005062372425621</v>
+        <v>0.0760141080118875</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.250065231900749e-05</v>
+        <v>0.0013091342617703</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9933518952651104</v>
+        <v>1.127904610707635</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>57.17985919727987</v>
+        <v>61.16969894659251</v>
       </c>
       <c r="H7" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.250065231900749e-05</v>
+        <v>0.0013091342617703</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9933518952651104</v>
+        <v>1.127904610707635</v>
       </c>
       <c r="K7" t="n">
-        <v>69.20305688385935</v>
+        <v>36.24506995181535</v>
       </c>
       <c r="L7" t="n">
-        <v>91.65559243387121</v>
+        <v>39.10714746931143</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>90.1560045198008</v>
+        <v>78.49914574274763</v>
       </c>
       <c r="O7" t="n">
-        <v>50.63057981733786</v>
+        <v>61.90246043203136</v>
       </c>
       <c r="P7" t="n">
-        <v>71.70505942267731</v>
+        <v>66.94544619441672</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.62515146469778</v>
+        <v>64.06536045940241</v>
       </c>
       <c r="R7" t="n">
-        <v>63.98988068293011</v>
+        <v>64.45777781047518</v>
       </c>
       <c r="S7" t="n">
-        <v>3.857589369873595</v>
+        <v>1.24383419197077</v>
       </c>
       <c r="T7" t="n">
-        <v>67.75655492447207</v>
+        <v>65.11868851113796</v>
       </c>
       <c r="U7" t="n">
-        <v>63.69085319458492</v>
+        <v>64.59202448527019</v>
       </c>
       <c r="V7" t="n">
-        <v>56.27470194318293</v>
+        <v>61.97010942653364</v>
       </c>
       <c r="W7" t="n">
-        <v>67.91000366210938</v>
+        <v>64.86000061035156</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -3605,135 +4263,135 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>73.77999877929688</v>
+        <v>65.22000122070312</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.73899841308594</v>
+        <v>65.01999664306641</v>
       </c>
       <c r="AB7" t="n">
-        <v>28.73600006103516</v>
+        <v>50.95000076293945</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF7" t="n">
-        <v>0.9954752404280928</v>
+        <v>0.9782852774559592</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.5389011282945242</v>
+        <v>0.4310477515839054</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.59999847412109</v>
+        <v>1.380001068115234</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.155823083728433</v>
+        <v>9.702893362708322</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>1.809110355141045</v>
+        <v>1.553867881950182</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.019040688440891</v>
+        <v>0.5588200680039879</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.349662604789562</v>
+        <v>0.6029470721754817</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CNC</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.046017911222257</v>
+        <v>0.0701880780254347</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0064479115725861</v>
+        <v>0.0013853343409881</v>
       </c>
       <c r="E8" t="n">
-        <v>1.806341574325072</v>
+        <v>1.135828749052704</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>85.23291421607533</v>
+        <v>172.9842617963558</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0064479115725861</v>
+        <v>0.0013853343409881</v>
       </c>
       <c r="J8" t="n">
-        <v>1.806341574325072</v>
+        <v>1.135828749052704</v>
       </c>
       <c r="K8" t="n">
-        <v>107.0571857809324</v>
+        <v>72.90071220788224</v>
       </c>
       <c r="L8" t="n">
-        <v>115.6196588214524</v>
+        <v>77.99108000249045</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>100.0264720924106</v>
+        <v>193.764720829556</v>
       </c>
       <c r="O8" t="n">
-        <v>80.44114591907319</v>
+        <v>172.5684075027718</v>
       </c>
       <c r="P8" t="n">
-        <v>89.07480980331303</v>
+        <v>178.1701107437524</v>
       </c>
       <c r="Q8" t="n">
-        <v>76.7679749259236</v>
+        <v>155.9065686264422</v>
       </c>
       <c r="R8" t="n">
-        <v>82.96658739967951</v>
+        <v>167.9994846525646</v>
       </c>
       <c r="S8" t="n">
-        <v>3.054111201816757</v>
+        <v>5.085313045593872</v>
       </c>
       <c r="T8" t="n">
-        <v>89.94297837782221</v>
+        <v>175.2480360885721</v>
       </c>
       <c r="U8" t="n">
-        <v>83.35547665187291</v>
+        <v>165.5773023575071</v>
       </c>
       <c r="V8" t="n">
-        <v>76.85836499604599</v>
+        <v>157.8288585613769</v>
       </c>
       <c r="W8" t="n">
-        <v>85.76000213623047</v>
+        <v>170.9799957275391</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -3746,13 +4404,13 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>89.91999816894531</v>
+        <v>177.6199951171875</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.91999816894531</v>
+        <v>177.6199951171875</v>
       </c>
       <c r="AB8" t="n">
-        <v>75.58999633789062</v>
+        <v>156.8399963378906</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -3761,116 +4419,116 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>VDC</t>
         </is>
       </c>
       <c r="AF8" t="n">
-        <v>0.4941688791997224</v>
+        <v>0.8758422771167831</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.3919346404147332</v>
+        <v>0.3275392891788038</v>
       </c>
       <c r="AH8" t="n">
-        <v>13.90999603271484</v>
+        <v>19.00999450683594</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.1329988684798413</v>
+        <v>0.0452393928910557</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>-2.4882150010950523</t>
         </is>
       </c>
       <c r="AK8" t="n">
-        <v>0.940040172243104</v>
+        <v>1.091438151927048</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.248334691163734</v>
+        <v>0.4263698329016884</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.348176958272337</v>
+        <v>0.4561415484345385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UTL</t>
+          <t>OPCH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UTL</t>
+          <t>OPCH</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.0746133096854264</v>
+        <v>0.2841224375627218</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.0029815258985206</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>1.315073130723244</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>49.89885205490212</v>
+        <v>28.10903399291069</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.0029815258985206</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>1.315073130723244</v>
       </c>
       <c r="K9" t="n">
-        <v>73.19589872367739</v>
+        <v>17.25716601035952</v>
       </c>
       <c r="L9" t="n">
-        <v>57.47703898294339</v>
+        <v>16.08367722044395</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>59.9968852847073</v>
+        <v>50.08851913827027</v>
       </c>
       <c r="O9" t="n">
-        <v>49.81719808471188</v>
+        <v>29.6383918808431</v>
       </c>
       <c r="P9" t="n">
-        <v>60.68218490945216</v>
+        <v>31.03940112599905</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.95221436611406</v>
+        <v>25.57176028296991</v>
       </c>
       <c r="R9" t="n">
-        <v>54.78373445783343</v>
+        <v>28.52603166065519</v>
       </c>
       <c r="S9" t="n">
-        <v>2.949225225809368</v>
+        <v>1.256684732671932</v>
       </c>
       <c r="T9" t="n">
-        <v>61.46080130224029</v>
+        <v>30.46482709914988</v>
       </c>
       <c r="U9" t="n">
-        <v>56.20650783417717</v>
+        <v>28.01829369105989</v>
       </c>
       <c r="V9" t="n">
-        <v>48.88528400621469</v>
+        <v>26.01266219531133</v>
       </c>
       <c r="W9" t="n">
-        <v>59.20000076293945</v>
+        <v>29.32999992370605</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -3879,135 +4537,135 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>58.86999893188477</v>
+        <v>31.07999992370605</v>
       </c>
       <c r="AA9" t="n">
-        <v>57.9900016784668</v>
+        <v>30.70000076293945</v>
       </c>
       <c r="AB9" t="n">
-        <v>57.9900016784668</v>
+        <v>22.69000053405762</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF9" t="n">
-        <v>0.4540133484671562</v>
+        <v>0.8003490781775602</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.4869988916534943</v>
+        <v>0.3781894099061518</v>
       </c>
       <c r="AH9" t="n">
-        <v>10.43999862670898</v>
+        <v>5.539999008178711</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.2634099963351131</v>
+        <v>0.6353789134652296</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK9" t="n">
-        <v>0.831118781258548</v>
+        <v>1.19210897873006</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.236417192235911</v>
+        <v>0.5883793404449132</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.9708959162535236</v>
+        <v>0.5483694941111906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SAFM</t>
+          <t>UTHR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAFM</t>
+          <t>UTHR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0105418973092409</v>
+        <v>-0.1018315800379532</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001664697110637</v>
+        <v>-0.0030638020412452</v>
       </c>
       <c r="E10" t="n">
-        <v>1.015431798021599</v>
+        <v>0.7540455750772554</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>184.0612259203039</v>
+        <v>187.2454139578555</v>
       </c>
       <c r="H10" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001664697110637</v>
+        <v>-0.0030638020412452</v>
       </c>
       <c r="J10" t="n">
-        <v>1.015431798021599</v>
+        <v>0.7540455750772554</v>
       </c>
       <c r="K10" t="n">
-        <v>789.1785400602955</v>
+        <v>983.2323868166142</v>
       </c>
       <c r="L10" t="n">
-        <v>1099.394022081432</v>
+        <v>988.4868609072076</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>239.7946587248009</v>
+        <v>244.6211933999786</v>
       </c>
       <c r="O10" t="n">
-        <v>193.1366388611816</v>
+        <v>185.0906486899365</v>
       </c>
       <c r="P10" t="n">
-        <v>222.40603401528</v>
+        <v>259.7558918756173</v>
       </c>
       <c r="Q10" t="n">
-        <v>206.3805502934993</v>
+        <v>218.4845825739465</v>
       </c>
       <c r="R10" t="n">
-        <v>199.7226713271368</v>
+        <v>211.225952027336</v>
       </c>
       <c r="S10" t="n">
-        <v>11.3416813440716</v>
+        <v>24.26496992414064</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6824668099079</v>
+        <v>249.6464491284888</v>
       </c>
       <c r="U10" t="n">
-        <v>213.5315085517036</v>
+        <v>234.0655158512176</v>
       </c>
       <c r="V10" t="n">
-        <v>177.0393086389936</v>
+        <v>162.6960121790547</v>
       </c>
       <c r="W10" t="n">
-        <v>211.9400024414062</v>
+        <v>237.1300048828125</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -4020,13 +4678,13 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>210.2200012207031</v>
+        <v>236.0599975585937</v>
       </c>
       <c r="AA10" t="n">
-        <v>200</v>
+        <v>218.3800048828125</v>
       </c>
       <c r="AB10" t="n">
-        <v>195.25</v>
+        <v>212.6199951171875</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -4035,60 +4693,60 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>VDC</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF10" t="n">
-        <v>0.7399683880660635</v>
+        <v>0.9303111599101656</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.4768869016072743</v>
+        <v>0.425934448125463</v>
       </c>
       <c r="AH10" t="n">
-        <v>37.86000061035156</v>
+        <v>63.08999633789063</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.8016377605450281</v>
+        <v>0.7026473238709003</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>-2.4882150010950523</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK10" t="n">
-        <v>1.752757188084119</v>
+        <v>1.285718221916528</v>
       </c>
       <c r="AL10" t="n">
-        <v>3.723594087805462</v>
+        <v>4.146385385951131</v>
       </c>
       <c r="AM10" t="n">
-        <v>5.18728889976952</v>
+        <v>4.16854400772989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>SJI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>SJI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0321377190791793</v>
+        <v>0.0406331543779371</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0003766436133054</v>
+        <v>0.0004742711237979</v>
       </c>
       <c r="E11" t="n">
-        <v>1.035251806553946</v>
+        <v>1.044588052682643</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -4096,55 +4754,55 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>292.6690258133085</v>
+        <v>31.90537761813682</v>
       </c>
       <c r="H11" t="n">
         <v>84</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003766436133054</v>
+        <v>0.0004742711237979</v>
       </c>
       <c r="J11" t="n">
-        <v>1.035251806553946</v>
+        <v>1.044588052682643</v>
       </c>
       <c r="K11" t="n">
-        <v>814.8555879098939</v>
+        <v>19.11104488933745</v>
       </c>
       <c r="L11" t="n">
-        <v>807.5911840242172</v>
+        <v>13.60211957360605</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>377.3523230297113</v>
+        <v>40.64129895318515</v>
       </c>
       <c r="O11" t="n">
-        <v>301.6722619526167</v>
+        <v>30.63704744164357</v>
       </c>
       <c r="P11" t="n">
-        <v>333.1415016747368</v>
+        <v>34.89469911040297</v>
       </c>
       <c r="Q11" t="n">
-        <v>287.4693689071905</v>
+        <v>33.64750908880384</v>
       </c>
       <c r="R11" t="n">
-        <v>303.6261899433439</v>
+        <v>34.16511912572952</v>
       </c>
       <c r="S11" t="n">
-        <v>14.75765586569648</v>
+        <v>0.3647899923367261</v>
       </c>
       <c r="T11" t="n">
-        <v>344.4988819124244</v>
+        <v>34.3896338313118</v>
       </c>
       <c r="U11" t="n">
-        <v>315.9841254098075</v>
+        <v>34.01857146005782</v>
       </c>
       <c r="V11" t="n">
-        <v>274.1108782119509</v>
+        <v>33.43553914105607</v>
       </c>
       <c r="W11" t="n">
-        <v>326.8900146484375</v>
+        <v>33.79000091552734</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -4153,135 +4811,135 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>324.0799865722656</v>
+        <v>35.31999969482422</v>
       </c>
       <c r="AA11" t="n">
-        <v>314</v>
+        <v>35.31999969482422</v>
       </c>
       <c r="AB11" t="n">
-        <v>239.3699951171875</v>
+        <v>29.23999977111816</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>SP500</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>VPU</t>
         </is>
       </c>
       <c r="AF11" t="n">
-        <v>0.9947713259541444</v>
+        <v>0.1700944781305834</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.4080438493557173</v>
+        <v>0.4219203980141893</v>
       </c>
       <c r="AH11" t="n">
-        <v>51.41000366210938</v>
+        <v>1.619998931884766</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.00778165538112</v>
+        <v>0.9197559063090897</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>-1.26726223190621</t>
         </is>
       </c>
       <c r="AK11" t="n">
-        <v>0.8879145170881578</v>
+        <v>0.8266153949311107</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.492751541481779</v>
+        <v>0.565582846153622</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.470528764522717</v>
+        <v>0.4025486595164765</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>AZO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>AZO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.070466830331226</v>
+        <v>0.1232905816232724</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0009485470777965</v>
+        <v>0.0013850344310528</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9163950358222208</v>
+        <v>1.13579745337269</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>71.27862872986924</v>
+        <v>2139.605950827909</v>
       </c>
       <c r="H12" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0009485470777965</v>
+        <v>0.0013850344310528</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9163950358222208</v>
+        <v>1.13579745337269</v>
       </c>
       <c r="K12" t="n">
-        <v>86.86406228185224</v>
+        <v>28886.40328568764</v>
       </c>
       <c r="L12" t="n">
-        <v>67.47422416364799</v>
+        <v>22623.4987086735</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>85.47580544252476</v>
+        <v>2769.668969497622</v>
       </c>
       <c r="O12" t="n">
-        <v>70.81190512626426</v>
+        <v>2137.710072883757</v>
       </c>
       <c r="P12" t="n">
-        <v>85.52514987241526</v>
+        <v>2275.068436195766</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.07940456670042</v>
+        <v>1981.125512877212</v>
       </c>
       <c r="R12" t="n">
-        <v>79.11912678915357</v>
+        <v>2064.614571223183</v>
       </c>
       <c r="S12" t="n">
-        <v>3.203011541630844</v>
+        <v>105.2269324862913</v>
       </c>
       <c r="T12" t="n">
-        <v>87.1334516049227</v>
+        <v>2246.688097381345</v>
       </c>
       <c r="U12" t="n">
-        <v>80.60642808581156</v>
+        <v>2113.906805129279</v>
       </c>
       <c r="V12" t="n">
-        <v>72.71310370589188</v>
+        <v>1854.160706250601</v>
       </c>
       <c r="W12" t="n">
-        <v>83.58999633789062</v>
+        <v>2175.340087890625</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -4290,135 +4948,135 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>82.98999786376953</v>
+        <v>2267.39990234375</v>
       </c>
       <c r="AA12" t="n">
-        <v>82.36000061035156</v>
+        <v>2267.39990234375</v>
       </c>
       <c r="AB12" t="n">
-        <v>77.16622924804688</v>
+        <v>1612.329956054688</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP500</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>VDC</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>0.4387229025648065</v>
+        <v>0.9877860387613956</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.3711061230820871</v>
+        <v>0.3943025853634108</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.51000213623047</v>
+        <v>506.8399658203125</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.7170946793765771</v>
+        <v>0.7475545112478634</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>-2.4882150010950523</t>
+          <t>-8.056900017144713</t>
         </is>
       </c>
       <c r="AK12" t="n">
-        <v>0.6737761406688946</v>
+        <v>0.9221551627253396</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.039168155130993</v>
+        <v>13.27902862016306</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.8072045354673919</v>
+        <v>10.39998243705009</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OPCH</t>
+          <t>SCI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OPCH</t>
+          <t>SCI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2841224375627218</v>
+        <v>0.1492909242964894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0029815258985206</v>
+        <v>0.0039834892182073</v>
       </c>
       <c r="E13" t="n">
-        <v>1.315073130723244</v>
+        <v>1.44159912973655</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28.10903399291069</v>
+        <v>66.91932210887698</v>
       </c>
       <c r="H13" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0029815258985206</v>
+        <v>0.0039834892182073</v>
       </c>
       <c r="J13" t="n">
-        <v>1.315073130723244</v>
+        <v>1.44159912973655</v>
       </c>
       <c r="K13" t="n">
-        <v>17.25716601035952</v>
+        <v>23.80283356675433</v>
       </c>
       <c r="L13" t="n">
-        <v>16.08367722044395</v>
+        <v>28.15380489519953</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>50.08851913827027</v>
+        <v>86.52835937230638</v>
       </c>
       <c r="O13" t="n">
-        <v>29.6383918808431</v>
+        <v>72.3229856044703</v>
       </c>
       <c r="P13" t="n">
-        <v>31.03940112599905</v>
+        <v>72.39198521096198</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.57176028296991</v>
+        <v>63.73728192036821</v>
       </c>
       <c r="R13" t="n">
-        <v>28.52603166065519</v>
+        <v>68.31294332231793</v>
       </c>
       <c r="S13" t="n">
-        <v>1.256684732671932</v>
+        <v>2.039520944322018</v>
       </c>
       <c r="T13" t="n">
-        <v>30.46482709914988</v>
+        <v>72.16867068462196</v>
       </c>
       <c r="U13" t="n">
-        <v>28.01829369105989</v>
+        <v>67.95297630249509</v>
       </c>
       <c r="V13" t="n">
-        <v>26.01266219531133</v>
+        <v>64.23390143367389</v>
       </c>
       <c r="W13" t="n">
-        <v>29.32999992370605</v>
+        <v>68.69000244140625</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -4431,13 +5089,13 @@
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>31.07999992370605</v>
+        <v>72.06999969482422</v>
       </c>
       <c r="AA13" t="n">
-        <v>30.70000076293945</v>
+        <v>72.06999969482422</v>
       </c>
       <c r="AB13" t="n">
-        <v>22.69000053405762</v>
+        <v>56.86000061035156</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -4446,116 +5104,116 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>0.8003490781775602</v>
+        <v>0.8814440211893415</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.3781894099061518</v>
+        <v>0.3627692483073442</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.539999008178711</v>
+        <v>8.630001068115234</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.6353789134652296</v>
+        <v>0.5874862916240663</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>-8.056900017144713</t>
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>1.19210897873006</v>
+        <v>1.041492810040387</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.5883793404449132</v>
+        <v>0.3465254435979756</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.5483694941111906</v>
+        <v>0.4098675774428048</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>LNTH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>LNTH</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0760141080118875</v>
+        <v>-0.005062372425621</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0013091342617703</v>
+        <v>-7.250065231900749e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>1.127904610707635</v>
+        <v>0.9933518952651104</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>61.16969894659251</v>
+        <v>57.17985919727987</v>
       </c>
       <c r="H14" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0013091342617703</v>
+        <v>-7.250065231900749e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.127904610707635</v>
+        <v>0.9933518952651104</v>
       </c>
       <c r="K14" t="n">
-        <v>36.24506995181535</v>
+        <v>69.20305688385935</v>
       </c>
       <c r="L14" t="n">
-        <v>39.10714746931143</v>
+        <v>91.65559243387121</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>78.49914574274763</v>
+        <v>90.1560045198008</v>
       </c>
       <c r="O14" t="n">
-        <v>61.90246043203136</v>
+        <v>50.63057981733786</v>
       </c>
       <c r="P14" t="n">
-        <v>66.94544619441672</v>
+        <v>71.70505942267731</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.06536045940241</v>
+        <v>59.62515146469778</v>
       </c>
       <c r="R14" t="n">
-        <v>64.45777781047518</v>
+        <v>63.98988068293011</v>
       </c>
       <c r="S14" t="n">
-        <v>1.24383419197077</v>
+        <v>3.857589369873595</v>
       </c>
       <c r="T14" t="n">
-        <v>65.11868851113796</v>
+        <v>67.75655492447207</v>
       </c>
       <c r="U14" t="n">
-        <v>64.59202448527019</v>
+        <v>63.69085319458492</v>
       </c>
       <c r="V14" t="n">
-        <v>61.97010942653364</v>
+        <v>56.27470194318293</v>
       </c>
       <c r="W14" t="n">
-        <v>64.86000061035156</v>
+        <v>67.91000366210938</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -4564,135 +5222,135 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>65.22000122070312</v>
+        <v>73.77999877929688</v>
       </c>
       <c r="AA14" t="n">
-        <v>65.01999664306641</v>
+        <v>69.73899841308594</v>
       </c>
       <c r="AB14" t="n">
-        <v>50.95000076293945</v>
+        <v>28.73600006103516</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>0.9782852774559592</v>
+        <v>0.9954752404280928</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.4310477515839054</v>
+        <v>0.5389011282945242</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.380001068115234</v>
+        <v>14.59999847412109</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.702893362708322</v>
+        <v>2.155823083728433</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>1.553867881950182</v>
+        <v>1.809110355141045</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.5588200680039879</v>
+        <v>1.019040688440891</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.6029470721754817</v>
+        <v>1.349662604789562</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VIVO</t>
+          <t>VG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VIVO</t>
+          <t>VG</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1257316072521891</v>
+        <v>0.2849775102815933</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.0071897578435533</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>1.933034789182653</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>23.50661866548128</v>
+        <v>21.26422242155391</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.0071897578435533</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>1.933034789182653</v>
       </c>
       <c r="K15" t="n">
-        <v>49.47916836601166</v>
+        <v>8.72077253126645</v>
       </c>
       <c r="L15" t="n">
-        <v>66.55871822754753</v>
+        <v>7.257785771120022</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>37.76486858108367</v>
+        <v>31.92286973005812</v>
       </c>
       <c r="O15" t="n">
-        <v>21.27127520031522</v>
+        <v>20.02135573467564</v>
       </c>
       <c r="P15" t="n">
-        <v>33.09209572152096</v>
+        <v>21.13923855415868</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.82320523681793</v>
+        <v>15.67887745100572</v>
       </c>
       <c r="R15" t="n">
-        <v>27.85674597725036</v>
+        <v>18.96162693841117</v>
       </c>
       <c r="S15" t="n">
-        <v>2.617674872135299</v>
+        <v>1.088805807873752</v>
       </c>
       <c r="T15" t="n">
-        <v>34.66925505944963</v>
+        <v>20.62270986571928</v>
       </c>
       <c r="U15" t="n">
-        <v>30.74623014813378</v>
+        <v>18.15079365836249</v>
       </c>
       <c r="V15" t="n">
-        <v>22.62139623297976</v>
+        <v>16.78401532266366</v>
       </c>
       <c r="W15" t="n">
-        <v>32.52000045776367</v>
+        <v>19.64999961853028</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -4705,13 +5363,13 @@
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>20.92000007629395</v>
       </c>
       <c r="AA15" t="n">
-        <v>28.71999931335449</v>
+        <v>20.92000007629395</v>
       </c>
       <c r="AB15" t="n">
-        <v>27.45000076293945</v>
+        <v>15.72000026702881</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -4720,116 +5378,116 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>VOX</t>
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>0.788326348865184</v>
+        <v>0.7530838589690669</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.4286035144226497</v>
+        <v>0.4979472319126913</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.610000610351562</v>
+        <v>4.399999618530273</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.289282050997061</v>
+        <v>0.315908762837216</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>-11.953640805625074</t>
         </is>
       </c>
       <c r="AK15" t="n">
-        <v>2.664133233431671</v>
+        <v>1.27367959858701</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.521499620834084</v>
+        <v>0.4438052264918427</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.046701023697483</v>
+        <v>0.3693529726217303</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LRN</t>
+          <t>CORT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LRN</t>
+          <t>CORT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.098856628508547</v>
+        <v>-0.1965275620717814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0067563080350401</v>
+        <v>-0.0031210108725836</v>
       </c>
       <c r="E16" t="n">
-        <v>1.857980147279473</v>
+        <v>0.750075052569126</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>35.25672413262687</v>
+        <v>17.03427347095241</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0067563080350401</v>
+        <v>-0.0031210108725836</v>
       </c>
       <c r="J16" t="n">
-        <v>1.857980147279473</v>
+        <v>0.750075052569126</v>
       </c>
       <c r="K16" t="n">
-        <v>67.85881737921078</v>
+        <v>30.65576656253409</v>
       </c>
       <c r="L16" t="n">
-        <v>82.17282421180927</v>
+        <v>29.19785297450188</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>56.53363988817947</v>
+        <v>27.11277871037613</v>
       </c>
       <c r="O16" t="n">
-        <v>33.79406279759919</v>
+        <v>17.68158474651613</v>
       </c>
       <c r="P16" t="n">
-        <v>42.2304826286212</v>
+        <v>26.91736319891661</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.62200737572483</v>
+        <v>19.85995131557321</v>
       </c>
       <c r="R16" t="n">
-        <v>37.80960314614432</v>
+        <v>22.07932542619251</v>
       </c>
       <c r="S16" t="n">
-        <v>2.21043974123844</v>
+        <v>2.41901888636205</v>
       </c>
       <c r="T16" t="n">
-        <v>43.99426238682902</v>
+        <v>28.6758422916239</v>
       </c>
       <c r="U16" t="n">
-        <v>38.30813488127693</v>
+        <v>24.26789680359856</v>
       </c>
       <c r="V16" t="n">
-        <v>33.38872366366743</v>
+        <v>17.24128765346841</v>
       </c>
       <c r="W16" t="n">
-        <v>40.29999923706055</v>
+        <v>27.3700008392334</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -4842,13 +5500,13 @@
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>41.84000015258789</v>
+        <v>25.68000030517578</v>
       </c>
       <c r="AA16" t="n">
-        <v>41.20000076293945</v>
+        <v>25.68000030517578</v>
       </c>
       <c r="AB16" t="n">
-        <v>35.86000061035156</v>
+        <v>25.5</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -4857,116 +5515,116 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>VDC</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>0.2435812357555729</v>
+        <v>0.2764018493398794</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.4956528085796282</v>
+        <v>0.3806608248649199</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.010002136230469</v>
+        <v>8.939998626708984</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.2219751066717811</v>
+        <v>0.5872486257060284</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>-2.4882150010950523</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK16" t="n">
-        <v>1.656586003635764</v>
+        <v>0.7150661695708899</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.683841654190571</v>
+        <v>1.120049894868499</v>
       </c>
       <c r="AM16" t="n">
-        <v>2.039027934676529</v>
+        <v>1.066783050026376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NOC</t>
+          <t>PWR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NOC</t>
+          <t>PWR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1096755984987262</v>
+        <v>0.1078172799944725</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0012396691721123</v>
+        <v>0.0014638083941889</v>
       </c>
       <c r="E17" t="n">
-        <v>1.120728511265472</v>
+        <v>1.14404691592066</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>450.5270368845298</v>
+        <v>112.9052723709655</v>
       </c>
       <c r="H17" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0012396691721123</v>
+        <v>0.0014638083941889</v>
       </c>
       <c r="J17" t="n">
-        <v>1.120728511265472</v>
+        <v>1.14404691592066</v>
       </c>
       <c r="K17" t="n">
-        <v>1358.498654955352</v>
+        <v>226.2390109276078</v>
       </c>
       <c r="L17" t="n">
-        <v>2060.058164057351</v>
+        <v>208.526984555595</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>555.2340873122614</v>
+        <v>160.9018280587833</v>
       </c>
       <c r="O17" t="n">
-        <v>467.3826452099427</v>
+        <v>125.350545950258</v>
       </c>
       <c r="P17" t="n">
-        <v>485.5246386792786</v>
+        <v>137.0625829278652</v>
       </c>
       <c r="Q17" t="n">
-        <v>444.753063866163</v>
+        <v>114.2660293463466</v>
       </c>
       <c r="R17" t="n">
-        <v>460.2466661967928</v>
+        <v>122.0874191768586</v>
       </c>
       <c r="S17" t="n">
-        <v>12.63898624124287</v>
+        <v>7.48758187550333</v>
       </c>
       <c r="T17" t="n">
-        <v>486.0882839644732</v>
+        <v>133.6906910966524</v>
       </c>
       <c r="U17" t="n">
-        <v>465.4206739153181</v>
+        <v>123.9783602214995</v>
       </c>
       <c r="V17" t="n">
-        <v>434.9686937143071</v>
+        <v>107.1122554258519</v>
       </c>
       <c r="W17" t="n">
-        <v>458.989990234375</v>
+        <v>128.0399932861328</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -4979,13 +5637,13 @@
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>492.2999877929688</v>
+        <v>140.0399932861328</v>
       </c>
       <c r="AA17" t="n">
-        <v>490.8200073242188</v>
+        <v>140.0399932861328</v>
       </c>
       <c r="AB17" t="n">
-        <v>379.0299987792969</v>
+        <v>101.9599990844727</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -5003,16 +5661,16 @@
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>0.8129594383881827</v>
+        <v>0.9860467705594406</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.424189698951249</v>
+        <v>0.4263865212845417</v>
       </c>
       <c r="AH17" t="n">
-        <v>56.22998046875</v>
+        <v>29.21000671386719</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.2635600560963537</v>
+        <v>0.0712082753706693</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -5020,90 +5678,90 @@
         </is>
       </c>
       <c r="AK17" t="n">
-        <v>0.8497068678473412</v>
+        <v>1.068314599269026</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.959756604412352</v>
+        <v>1.766940196740156</v>
       </c>
       <c r="AM17" t="n">
-        <v>4.488242026815049</v>
+        <v>1.628608212198174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.133559460968584</v>
+        <v>0.0321377190791793</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.0003766436133054</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>1.035251806553946</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>44.57405999890079</v>
+        <v>292.6690258133085</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.0003766436133054</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>1.035251806553946</v>
       </c>
       <c r="K18" t="n">
-        <v>83.82844274773301</v>
+        <v>814.8555879098939</v>
       </c>
       <c r="L18" t="n">
-        <v>80.70848018764825</v>
+        <v>807.5911840242172</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>57.01631453562464</v>
+        <v>377.3523230297113</v>
       </c>
       <c r="O18" t="n">
-        <v>44.21611472331803</v>
+        <v>301.6722619526167</v>
       </c>
       <c r="P18" t="n">
-        <v>57.70241477712647</v>
+        <v>333.1415016747368</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.88845586994177</v>
+        <v>287.4693689071905</v>
       </c>
       <c r="R18" t="n">
-        <v>54.05595414600675</v>
+        <v>303.6261899433439</v>
       </c>
       <c r="S18" t="n">
-        <v>1.823230315559862</v>
+        <v>14.75765586569648</v>
       </c>
       <c r="T18" t="n">
-        <v>58.95757568232758</v>
+        <v>344.4988819124244</v>
       </c>
       <c r="U18" t="n">
-        <v>54.42301577613468</v>
+        <v>315.9841254098075</v>
       </c>
       <c r="V18" t="n">
-        <v>50.40949351488703</v>
+        <v>274.1108782119509</v>
       </c>
       <c r="W18" t="n">
-        <v>58.18000030517578</v>
+        <v>326.8900146484375</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -5116,13 +5774,13 @@
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>57.45000076293945</v>
+        <v>324.0799865722656</v>
       </c>
       <c r="AA18" t="n">
-        <v>57.45000076293945</v>
+        <v>314</v>
       </c>
       <c r="AB18" t="n">
-        <v>57.45000076293945</v>
+        <v>239.3699951171875</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -5131,116 +5789,116 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>VDC</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>0.1229225154004058</v>
+        <v>0.9947713259541444</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.4055458335048223</v>
+        <v>0.4080438493557173</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.200000762939451</v>
+        <v>51.41000366210938</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.2380433092496035</v>
+        <v>2.00778165538112</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>-2.4882150010950523</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK18" t="n">
-        <v>0.8495979265280813</v>
+        <v>0.8879145170881578</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.440846378618453</v>
+        <v>2.492751541481779</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.387220346584775</v>
+        <v>2.470528764522717</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>GCP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>GCP</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0191620388525292</v>
+        <v>-0.0142617538108282</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0002259869492791</v>
+        <v>-0.001025504526133</v>
       </c>
       <c r="E19" t="n">
-        <v>1.021006035435088</v>
+        <v>0.9099234300245092</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>86.97392452924021</v>
+        <v>27.72668672487865</v>
       </c>
       <c r="H19" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002259869492791</v>
+        <v>-0.001025504526133</v>
       </c>
       <c r="J19" t="n">
-        <v>1.021006035435088</v>
+        <v>0.9099234300245092</v>
       </c>
       <c r="K19" t="n">
-        <v>38.08136383692741</v>
+        <v>15.00300877433387</v>
       </c>
       <c r="L19" t="n">
-        <v>37.09680786492942</v>
+        <v>19.81453173740144</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>103.254415792407</v>
+        <v>36.49975538956504</v>
       </c>
       <c r="O19" t="n">
-        <v>88.87773441232508</v>
+        <v>26.69559950695099</v>
       </c>
       <c r="P19" t="n">
-        <v>95.84012945432852</v>
+        <v>31.72136327412379</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.34490098506794</v>
+        <v>30.78346399886387</v>
       </c>
       <c r="R19" t="n">
-        <v>89.28399600679913</v>
+        <v>31.18706348207262</v>
       </c>
       <c r="S19" t="n">
-        <v>3.278066723764694</v>
+        <v>0.2671498960255848</v>
       </c>
       <c r="T19" t="n">
-        <v>97.54105113188319</v>
+        <v>31.90641709883889</v>
       </c>
       <c r="U19" t="n">
-        <v>90.94297605847557</v>
+        <v>31.34494054885138</v>
       </c>
       <c r="V19" t="n">
-        <v>82.72786255926974</v>
+        <v>30.65276369002145</v>
       </c>
       <c r="W19" t="n">
-        <v>93.87999725341795</v>
+        <v>31.72999954223633</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -5249,135 +5907,135 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>94.91999816894533</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="AA19" t="n">
-        <v>92.87000274658205</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="AB19" t="n">
-        <v>81.67938995361328</v>
+        <v>27.78000068664551</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>SP500</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>0.8294130881072286</v>
+        <v>0.1650792770638959</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.3427539858289564</v>
+        <v>0.4577719098124361</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.66999816894531</v>
+        <v>1.070001602172852</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.9605842659822892</v>
+        <v>2.663547770098879</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK19" t="n">
-        <v>1.09219457481854</v>
+        <v>1.940731095499072</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.4056387404244512</v>
+        <v>0.4728335641594673</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.395151352260812</v>
+        <v>0.6244731176571872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SAFT</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAFT</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.0035230638752073</v>
+        <v>-0.0024631432858985</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0001008316155631</v>
+        <v>-5.871689071257347e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.990765922040869</v>
+        <v>0.9946124526258718</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>85.07836822628617</v>
+        <v>68.89383664988836</v>
       </c>
       <c r="H20" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0001008316155631</v>
+        <v>-5.871689071257347e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.990765922040869</v>
+        <v>0.9946124526258718</v>
       </c>
       <c r="K20" t="n">
-        <v>78.86851247470017</v>
+        <v>18.8546796049419</v>
       </c>
       <c r="L20" t="n">
-        <v>70.1913751463324</v>
+        <v>16.02404350204252</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>101.3942417724614</v>
+        <v>80.94094750397768</v>
       </c>
       <c r="O20" t="n">
-        <v>85.47169831616188</v>
+        <v>68.32459872161078</v>
       </c>
       <c r="P20" t="n">
-        <v>99.14585121789236</v>
+        <v>76.37187998710883</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.81066938644045</v>
+        <v>64.11724563729409</v>
       </c>
       <c r="R20" t="n">
-        <v>90.40302945697118</v>
+        <v>70.40058329748729</v>
       </c>
       <c r="S20" t="n">
-        <v>4.371410880460593</v>
+        <v>2.98564834481077</v>
       </c>
       <c r="T20" t="n">
-        <v>100.8353622506</v>
+        <v>79.68433700188542</v>
       </c>
       <c r="U20" t="n">
-        <v>94.3230158185202</v>
+        <v>71.90079131958976</v>
       </c>
       <c r="V20" t="n">
-        <v>81.66020769604999</v>
+        <v>64.42928660786575</v>
       </c>
       <c r="W20" t="n">
-        <v>93.38999938964844</v>
+        <v>74.69999694824219</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -5386,79 +6044,79 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>94.48000335693359</v>
+        <v>73.98999786376953</v>
       </c>
       <c r="AA20" t="n">
-        <v>93.18000030517578</v>
+        <v>73.98999786376953</v>
       </c>
       <c r="AB20" t="n">
-        <v>87.98000335693359</v>
+        <v>64.65000152587891</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP500</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>VDC</t>
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>0.4544963831202809</v>
+        <v>0.9589203667660098</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.4240026992554046</v>
+        <v>0.421055935901568</v>
       </c>
       <c r="AH20" t="n">
-        <v>14.80000305175781</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.3060804199877723</v>
+        <v>0.9558327992757162</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>-2.4882150010950523</t>
         </is>
       </c>
       <c r="AK20" t="n">
-        <v>1.226187592021439</v>
+        <v>1.217959158427607</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.8445070456167294</v>
+        <v>0.2524053597753939</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.751594127905226</v>
+        <v>0.2145119699689571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HRB</t>
+          <t>NOC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HRB</t>
+          <t>NOC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.07888696817600831</v>
+        <v>0.1096755984987262</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0009777659961783</v>
+        <v>0.0012396691721123</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9139325766890852</v>
+        <v>1.120728511265472</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5466,55 +6124,55 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>29.47980495905169</v>
+        <v>450.5270368845298</v>
       </c>
       <c r="H21" t="n">
         <v>84</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0009777659961783</v>
+        <v>0.0012396691721123</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9139325766890852</v>
+        <v>1.120728511265472</v>
       </c>
       <c r="K21" t="n">
-        <v>16.70618644145343</v>
+        <v>1358.498654955352</v>
       </c>
       <c r="L21" t="n">
-        <v>13.29613958311702</v>
+        <v>2060.058164057351</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>39.60178785591341</v>
+        <v>555.2340873122614</v>
       </c>
       <c r="O21" t="n">
-        <v>29.04127122471956</v>
+        <v>467.3826452099427</v>
       </c>
       <c r="P21" t="n">
-        <v>40.46828852191325</v>
+        <v>485.5246386792786</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.55921171202821</v>
+        <v>444.753063866163</v>
       </c>
       <c r="R21" t="n">
-        <v>32.38615088992648</v>
+        <v>460.2466661967928</v>
       </c>
       <c r="S21" t="n">
-        <v>4.041068815993384</v>
+        <v>12.63898624124287</v>
       </c>
       <c r="T21" t="n">
-        <v>38.01523289227023</v>
+        <v>486.0882839644732</v>
       </c>
       <c r="U21" t="n">
-        <v>35.28722230214922</v>
+        <v>465.4206739153181</v>
       </c>
       <c r="V21" t="n">
-        <v>24.30401325793972</v>
+        <v>434.9686937143071</v>
       </c>
       <c r="W21" t="n">
-        <v>36.7599983215332</v>
+        <v>458.989990234375</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -5523,135 +6181,135 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>36.83000183105469</v>
+        <v>492.2999877929688</v>
       </c>
       <c r="AA21" t="n">
-        <v>33.38000106811523</v>
+        <v>490.8200073242188</v>
       </c>
       <c r="AB21" t="n">
-        <v>26.22999954223633</v>
+        <v>379.0299987792969</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP500</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>VIS</t>
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>0.9233728980724356</v>
+        <v>0.8129594383881827</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.4507763952228311</v>
+        <v>0.424189698951249</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.310001373291016</v>
+        <v>56.22998046875</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.606400931044516</v>
+        <v>0.2635600560963537</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>-8.056900017144713</t>
+          <t>-5.554050640692836</t>
         </is>
       </c>
       <c r="AK21" t="n">
-        <v>0.7353958926239439</v>
+        <v>0.8497068678473412</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.454466463663229</v>
+        <v>2.959756604412352</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.3617013109418025</v>
+        <v>4.488242026815049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CORT</t>
+          <t>LRN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CORT</t>
+          <t>LRN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.1965275620717814</v>
+        <v>0.098856628508547</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0031210108725836</v>
+        <v>0.0067563080350401</v>
       </c>
       <c r="E22" t="n">
-        <v>0.750075052569126</v>
+        <v>1.857980147279473</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>17.03427347095241</v>
+        <v>35.25672413262687</v>
       </c>
       <c r="H22" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0031210108725836</v>
+        <v>0.0067563080350401</v>
       </c>
       <c r="J22" t="n">
-        <v>0.750075052569126</v>
+        <v>1.857980147279473</v>
       </c>
       <c r="K22" t="n">
-        <v>30.65576656253409</v>
+        <v>67.85881737921078</v>
       </c>
       <c r="L22" t="n">
-        <v>29.19785297450188</v>
+        <v>82.17282421180927</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>27.11277871037613</v>
+        <v>56.53363988817947</v>
       </c>
       <c r="O22" t="n">
-        <v>17.68158474651613</v>
+        <v>33.79406279759919</v>
       </c>
       <c r="P22" t="n">
-        <v>26.91736319891661</v>
+        <v>42.2304826286212</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.85995131557321</v>
+        <v>32.62200737572483</v>
       </c>
       <c r="R22" t="n">
-        <v>22.07932542619251</v>
+        <v>37.80960314614432</v>
       </c>
       <c r="S22" t="n">
-        <v>2.41901888636205</v>
+        <v>2.21043974123844</v>
       </c>
       <c r="T22" t="n">
-        <v>28.6758422916239</v>
+        <v>43.99426238682902</v>
       </c>
       <c r="U22" t="n">
-        <v>24.26789680359856</v>
+        <v>38.30813488127693</v>
       </c>
       <c r="V22" t="n">
-        <v>17.24128765346841</v>
+        <v>33.38872366366743</v>
       </c>
       <c r="W22" t="n">
-        <v>27.3700008392334</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -5664,13 +6322,13 @@
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>25.68000030517578</v>
+        <v>41.84000015258789</v>
       </c>
       <c r="AA22" t="n">
-        <v>25.68000030517578</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="AB22" t="n">
-        <v>25.5</v>
+        <v>35.86000061035156</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -5679,116 +6337,116 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>VDC</t>
         </is>
       </c>
       <c r="AF22" t="n">
-        <v>0.2764018493398794</v>
+        <v>0.2435812357555729</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.3806608248649199</v>
+        <v>0.4956528085796282</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.939998626708984</v>
+        <v>9.010002136230469</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.5872486257060284</v>
+        <v>0.2219751066717811</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>-2.4882150010950523</t>
         </is>
       </c>
       <c r="AK22" t="n">
-        <v>0.7150661695708899</v>
+        <v>1.656586003635764</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.120049894868499</v>
+        <v>1.683841654190571</v>
       </c>
       <c r="AM22" t="n">
-        <v>1.066783050026376</v>
+        <v>2.039027934676529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SJI</t>
+          <t>CSL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SJI</t>
+          <t>CSL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0406331543779371</v>
+        <v>0.1303016154873205</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0004742711237979</v>
+        <v>0.0019460898060505</v>
       </c>
       <c r="E23" t="n">
-        <v>1.044588052682643</v>
+        <v>1.195860815357377</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>31.90537761813682</v>
+        <v>249.1340548424751</v>
       </c>
       <c r="H23" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004742711237979</v>
+        <v>0.0019460898060505</v>
       </c>
       <c r="J23" t="n">
-        <v>1.044588052682643</v>
+        <v>1.195860815357377</v>
       </c>
       <c r="K23" t="n">
-        <v>19.11104488933745</v>
+        <v>394.0538566058578</v>
       </c>
       <c r="L23" t="n">
-        <v>13.60211957360605</v>
+        <v>308.2857142610639</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>40.64129895318515</v>
+        <v>315.3807431389832</v>
       </c>
       <c r="O23" t="n">
-        <v>30.63704744164357</v>
+        <v>255.6146375455682</v>
       </c>
       <c r="P23" t="n">
-        <v>34.89469911040297</v>
+        <v>268.7469960594998</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.64750908880384</v>
+        <v>229.6012297288847</v>
       </c>
       <c r="R23" t="n">
-        <v>34.16511912572952</v>
+        <v>249.6996933467804</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3647899923367261</v>
+        <v>9.523651356359712</v>
       </c>
       <c r="T23" t="n">
-        <v>34.3896338313118</v>
+        <v>255.4028969258461</v>
       </c>
       <c r="U23" t="n">
-        <v>34.01857146005782</v>
+        <v>242.5020633273654</v>
       </c>
       <c r="V23" t="n">
-        <v>33.43553914105607</v>
+        <v>230.652390634061</v>
       </c>
       <c r="W23" t="n">
-        <v>33.79000091552734</v>
+        <v>250.3500061035156</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -5797,135 +6455,135 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>35.31999969482422</v>
+        <v>275.1300048828125</v>
       </c>
       <c r="AA23" t="n">
-        <v>35.31999969482422</v>
+        <v>275.1300048828125</v>
       </c>
       <c r="AB23" t="n">
-        <v>29.23999977111816</v>
+        <v>197.2100067138672</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>VPU</t>
+          <t>VIS</t>
         </is>
       </c>
       <c r="AF23" t="n">
-        <v>0.1700944781305834</v>
+        <v>0.972181583829963</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.4219203980141893</v>
+        <v>0.4428008992317797</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.619998931884766</v>
+        <v>43.02998352050781</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.9197559063090897</v>
+        <v>0.083197843414197</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>-1.26726223190621</t>
+          <t>-5.554050640692836</t>
         </is>
       </c>
       <c r="AK23" t="n">
-        <v>0.8266153949311107</v>
+        <v>1.13179765068934</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.565582846153622</v>
+        <v>1.574011771515288</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.4025486595164765</v>
+        <v>1.231418840603475</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BANF</t>
+          <t>VIVO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BANF</t>
+          <t>VIVO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0159532857241367</v>
+        <v>-0.1257316072521891</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001884388176169</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.017485856511175</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>72.93347733076482</v>
+        <v>23.50661866548128</v>
       </c>
       <c r="H24" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001884388176169</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.017485856511175</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>299.2350306350475</v>
+        <v>49.47916836601166</v>
       </c>
       <c r="L24" t="n">
-        <v>220.04342846292</v>
+        <v>66.55871822754753</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>107.3601514984853</v>
+        <v>37.76486858108367</v>
       </c>
       <c r="O24" t="n">
-        <v>74.48246646348936</v>
+        <v>21.27127520031522</v>
       </c>
       <c r="P24" t="n">
-        <v>100.8773871415487</v>
+        <v>33.09209572152096</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.0944725291256</v>
+        <v>26.82320523681793</v>
       </c>
       <c r="R24" t="n">
-        <v>89.26472215803842</v>
+        <v>27.85674597725036</v>
       </c>
       <c r="S24" t="n">
-        <v>5.806332491755132</v>
+        <v>2.617674872135299</v>
       </c>
       <c r="T24" t="n">
-        <v>100.4269559575319</v>
+        <v>34.66925505944963</v>
       </c>
       <c r="U24" t="n">
-        <v>95.26071424332876</v>
+        <v>30.74623014813378</v>
       </c>
       <c r="V24" t="n">
-        <v>77.65205717452815</v>
+        <v>22.62139623297976</v>
       </c>
       <c r="W24" t="n">
-        <v>88.25</v>
+        <v>32.52000045776367</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -5938,13 +6596,13 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>96.98999786376952</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>86.81999969482422</v>
+        <v>28.71999931335449</v>
       </c>
       <c r="AB24" t="n">
-        <v>77.37999725341797</v>
+        <v>27.45000076293945</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -5953,116 +6611,116 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>VFH</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF24" t="n">
-        <v>0.8270121932052892</v>
+        <v>0.788326348865184</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.5355063709184559</v>
+        <v>0.4286035144226497</v>
       </c>
       <c r="AH24" t="n">
-        <v>20.2300033569336</v>
+        <v>9.610000610351562</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.1759765001110655</v>
+        <v>1.289282050997061</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>-5.692129772713492</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK24" t="n">
-        <v>1.588770760193912</v>
+        <v>2.664133233431671</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.390765219660595</v>
+        <v>1.521499620834084</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.493409954254051</v>
+        <v>2.046701023697483</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PWR</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PWR</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1078172799944725</v>
+        <v>0.0391774219103324</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0014638083941889</v>
+        <v>0.000457598234286</v>
       </c>
       <c r="E25" t="n">
-        <v>1.14404691592066</v>
+        <v>1.042987726309494</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>112.9052723709655</v>
+        <v>176.7364170052973</v>
       </c>
       <c r="H25" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0014638083941889</v>
+        <v>0.000457598234286</v>
       </c>
       <c r="J25" t="n">
-        <v>1.14404691592066</v>
+        <v>1.042987726309494</v>
       </c>
       <c r="K25" t="n">
-        <v>226.2390109276078</v>
+        <v>329.3931554304485</v>
       </c>
       <c r="L25" t="n">
-        <v>208.526984555595</v>
+        <v>217.2348035570339</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>160.9018280587833</v>
+        <v>215.342447975407</v>
       </c>
       <c r="O25" t="n">
-        <v>125.350545950258</v>
+        <v>178.0099228428525</v>
       </c>
       <c r="P25" t="n">
-        <v>137.0625829278652</v>
+        <v>196.232591318746</v>
       </c>
       <c r="Q25" t="n">
-        <v>114.2660293463466</v>
+        <v>185.7893514216742</v>
       </c>
       <c r="R25" t="n">
-        <v>122.0874191768586</v>
+        <v>184.4030776856437</v>
       </c>
       <c r="S25" t="n">
-        <v>7.48758187550333</v>
+        <v>5.914756816551099</v>
       </c>
       <c r="T25" t="n">
-        <v>133.6906910966524</v>
+        <v>187.7983468941429</v>
       </c>
       <c r="U25" t="n">
-        <v>123.9783602214995</v>
+        <v>186.7938491579086</v>
       </c>
       <c r="V25" t="n">
-        <v>107.1122554258519</v>
+        <v>172.5735640525415</v>
       </c>
       <c r="W25" t="n">
-        <v>128.0399932861328</v>
+        <v>187.0700073242188</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -6071,135 +6729,135 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>140.0399932861328</v>
+        <v>189.8300018310547</v>
       </c>
       <c r="AA25" t="n">
-        <v>140.0399932861328</v>
+        <v>189.8300018310547</v>
       </c>
       <c r="AB25" t="n">
-        <v>101.9599990844727</v>
+        <v>165.8500061035156</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>SP500</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>VIS</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF25" t="n">
-        <v>0.9860467705594406</v>
+        <v>0.8641512025809797</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.4263865212845417</v>
+        <v>0.4822924374006571</v>
       </c>
       <c r="AH25" t="n">
-        <v>29.21000671386719</v>
+        <v>2.819992065429688</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.0712082753706693</v>
+        <v>5.567395880115361</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>-5.554050640692836</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK25" t="n">
-        <v>1.068314599269026</v>
+        <v>2.276459869347291</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.766940196740156</v>
+        <v>1.760801531693767</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.628608212198174</v>
+        <v>1.161248703970676</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GCP</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GCP</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.0142617538108282</v>
+        <v>0.02710127418208</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.001025504526133</v>
+        <v>0.0003183904106096</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9099234300245092</v>
+        <v>1.029720344964386</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>27.72668672487865</v>
+        <v>147.7899200440788</v>
       </c>
       <c r="H26" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.001025504526133</v>
+        <v>0.0003183904106096</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9099234300245092</v>
+        <v>1.029720344964386</v>
       </c>
       <c r="K26" t="n">
-        <v>15.00300877433387</v>
+        <v>420.4074951064169</v>
       </c>
       <c r="L26" t="n">
-        <v>19.81453173740144</v>
+        <v>337.7797690641702</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>36.49975538956504</v>
+        <v>201.2843794288873</v>
       </c>
       <c r="O26" t="n">
-        <v>26.69559950695099</v>
+        <v>150.2199985963747</v>
       </c>
       <c r="P26" t="n">
-        <v>31.72136327412379</v>
+        <v>179.960752044865</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.78346399886387</v>
+        <v>147.2320969742164</v>
       </c>
       <c r="R26" t="n">
-        <v>31.18706348207262</v>
+        <v>158.9426591661241</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2671498960255848</v>
+        <v>10.5090464393704</v>
       </c>
       <c r="T26" t="n">
-        <v>31.90641709883889</v>
+        <v>170.5142532687617</v>
       </c>
       <c r="U26" t="n">
-        <v>31.34494054885138</v>
+        <v>158.873175121489</v>
       </c>
       <c r="V26" t="n">
-        <v>30.65276369002145</v>
+        <v>137.9245662873833</v>
       </c>
       <c r="W26" t="n">
-        <v>31.72999954223633</v>
+        <v>168.7599945068359</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -6208,79 +6866,79 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>32.27999877929688</v>
+        <v>177.1900024414062</v>
       </c>
       <c r="AA26" t="n">
-        <v>32.27999877929688</v>
+        <v>177.1900024414062</v>
       </c>
       <c r="AB26" t="n">
-        <v>27.78000068664551</v>
+        <v>120.370002746582</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP500</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>VDC</t>
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>0.1650792770638959</v>
+        <v>0.7405838502457078</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.4577719098124361</v>
+        <v>0.433787885947247</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.070001602172852</v>
+        <v>45.43000030517578</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.663547770098879</v>
+        <v>0.6940342434362941</v>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>-2.4882150010950523</t>
         </is>
       </c>
       <c r="AK26" t="n">
-        <v>1.940731095499072</v>
+        <v>0.8479220236826441</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.4728335641594673</v>
+        <v>2.491156131729949</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.6244731176571872</v>
+        <v>2.001539346165881</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CEIX</t>
+          <t>MUSA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CEIX</t>
+          <t>MUSA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3314635949763004</v>
+        <v>0.0596213278916399</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0034138948786559</v>
+        <v>0.000689661593715</v>
       </c>
       <c r="E27" t="n">
-        <v>1.368264886148827</v>
+        <v>1.065481700190683</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -6288,55 +6946,55 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>55.1644788371652</v>
+        <v>232.0180797804648</v>
       </c>
       <c r="H27" t="n">
         <v>84</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0034138948786559</v>
+        <v>0.000689661593715</v>
       </c>
       <c r="J27" t="n">
-        <v>1.368264886148827</v>
+        <v>1.065481700190683</v>
       </c>
       <c r="K27" t="n">
-        <v>45.35421358756337</v>
+        <v>411.4624611823946</v>
       </c>
       <c r="L27" t="n">
-        <v>59.96598132246007</v>
+        <v>467.5989498127477</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>99.96502636509926</v>
+        <v>321.1538949241204</v>
       </c>
       <c r="O27" t="n">
-        <v>55.49343747225468</v>
+        <v>251.941926373268</v>
       </c>
       <c r="P27" t="n">
-        <v>57.50048681030728</v>
+        <v>262.2325259870004</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.98744871208419</v>
+        <v>211.6096494888181</v>
       </c>
       <c r="R27" t="n">
-        <v>50.24547605665903</v>
+        <v>241.2813156370133</v>
       </c>
       <c r="S27" t="n">
-        <v>3.627505376824125</v>
+        <v>10.47560517499354</v>
       </c>
       <c r="T27" t="n">
-        <v>56.25885248478616</v>
+        <v>268.4685214086506</v>
       </c>
       <c r="U27" t="n">
-        <v>50.12315059843517</v>
+        <v>240.0390854487344</v>
       </c>
       <c r="V27" t="n">
-        <v>42.99046530301078</v>
+        <v>220.3301052870262</v>
       </c>
       <c r="W27" t="n">
-        <v>55.88999938964844</v>
+        <v>269.3399963378906</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -6345,135 +7003,135 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>59.38000106811523</v>
+        <v>262.5799865722656</v>
       </c>
       <c r="AA27" t="n">
-        <v>55.2599983215332</v>
+        <v>259.8599853515625</v>
       </c>
       <c r="AB27" t="n">
-        <v>19.97999954223633</v>
+        <v>159</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>VDE</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="AF27" t="n">
-        <v>0.9260280606418284</v>
+        <v>0.998524433669738</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.5200597996983751</v>
+        <v>0.4140872917593018</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.18000030517578</v>
+        <v>52.46998596191406</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.723149046464921</v>
+        <v>2.41242711941496</v>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>-1.114741987155641</t>
+          <t>-8.056900017144713</t>
         </is>
       </c>
       <c r="AK27" t="n">
-        <v>1.894000502883219</v>
+        <v>1.421214909001477</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.81149067960025</v>
+        <v>1.527669365028911</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.072928645148036</v>
+        <v>1.73609176568837</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VG</t>
+          <t>ROG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VG</t>
+          <t>ROG</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.2849775102815933</v>
+        <v>0.1805727081902145</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0071897578435533</v>
+        <v>0.0026383897841806</v>
       </c>
       <c r="E28" t="n">
-        <v>1.933034789182653</v>
+        <v>1.274319373831329</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>21.26422242155391</v>
+        <v>279.8779484683661</v>
       </c>
       <c r="H28" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0071897578435533</v>
+        <v>0.0026383897841806</v>
       </c>
       <c r="J28" t="n">
-        <v>1.933034789182653</v>
+        <v>1.274319373831329</v>
       </c>
       <c r="K28" t="n">
-        <v>8.72077253126645</v>
+        <v>1081.758211631702</v>
       </c>
       <c r="L28" t="n">
-        <v>7.257785771120022</v>
+        <v>852.4256731381255</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>31.92286973005812</v>
+        <v>371.1661257938076</v>
       </c>
       <c r="O28" t="n">
-        <v>20.02135573467564</v>
+        <v>254.4047327127088</v>
       </c>
       <c r="P28" t="n">
-        <v>21.13923855415868</v>
+        <v>276.3310903646956</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67887745100572</v>
+        <v>256.366372345465</v>
       </c>
       <c r="R28" t="n">
-        <v>18.96162693841117</v>
+        <v>264.3081346542116</v>
       </c>
       <c r="S28" t="n">
-        <v>1.088805807873752</v>
+        <v>6.011477855242</v>
       </c>
       <c r="T28" t="n">
-        <v>20.62270986571928</v>
+        <v>263.7775160977704</v>
       </c>
       <c r="U28" t="n">
-        <v>18.15079365836249</v>
+        <v>260.0719442216177</v>
       </c>
       <c r="V28" t="n">
-        <v>16.78401532266366</v>
+        <v>252.2851789437276</v>
       </c>
       <c r="W28" t="n">
-        <v>19.64999961853028</v>
+        <v>263.2900085449219</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -6486,13 +7144,13 @@
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>20.92000007629395</v>
+        <v>274.510009765625</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.92000007629395</v>
+        <v>274.510009765625</v>
       </c>
       <c r="AB28" t="n">
-        <v>15.72000026702881</v>
+        <v>206.1300048828125</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -6501,116 +7159,116 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>VOX</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="AF28" t="n">
-        <v>0.7530838589690669</v>
+        <v>0.7408815232947069</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.4979472319126913</v>
+        <v>0.4795247532453542</v>
       </c>
       <c r="AH28" t="n">
-        <v>4.399999618530273</v>
+        <v>15.17999267578125</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.315908762837216</v>
+        <v>2.287221210330145</v>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>-11.953640805625074</t>
+          <t>-6.166308229659177</t>
         </is>
       </c>
       <c r="AK28" t="n">
-        <v>1.27367959858701</v>
+        <v>1.027463656839788</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.4438052264918427</v>
+        <v>4.108618544281504</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.3693529726217303</v>
+        <v>3.237592181522858</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GIS</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.0024631432858985</v>
+        <v>0.0191620388525292</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.871689071257347e-05</v>
+        <v>0.0002259869492791</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9946124526258718</v>
+        <v>1.021006035435088</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>68.89383664988836</v>
+        <v>86.97392452924021</v>
       </c>
       <c r="H29" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I29" t="n">
-        <v>-5.871689071257347e-05</v>
+        <v>0.0002259869492791</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9946124526258718</v>
+        <v>1.021006035435088</v>
       </c>
       <c r="K29" t="n">
-        <v>18.8546796049419</v>
+        <v>38.08136383692741</v>
       </c>
       <c r="L29" t="n">
-        <v>16.02404350204252</v>
+        <v>37.09680786492942</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>80.94094750397768</v>
+        <v>103.254415792407</v>
       </c>
       <c r="O29" t="n">
-        <v>68.32459872161078</v>
+        <v>88.87773441232508</v>
       </c>
       <c r="P29" t="n">
-        <v>76.37187998710883</v>
+        <v>95.84012945432852</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.11724563729409</v>
+        <v>84.34490098506794</v>
       </c>
       <c r="R29" t="n">
-        <v>70.40058329748729</v>
+        <v>89.28399600679913</v>
       </c>
       <c r="S29" t="n">
-        <v>2.98564834481077</v>
+        <v>3.278066723764694</v>
       </c>
       <c r="T29" t="n">
-        <v>79.68433700188542</v>
+        <v>97.54105113188319</v>
       </c>
       <c r="U29" t="n">
-        <v>71.90079131958976</v>
+        <v>90.94297605847557</v>
       </c>
       <c r="V29" t="n">
-        <v>64.42928660786575</v>
+        <v>82.72786255926974</v>
       </c>
       <c r="W29" t="n">
-        <v>74.69999694824219</v>
+        <v>93.87999725341795</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -6623,13 +7281,13 @@
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>73.98999786376953</v>
+        <v>94.91999816894533</v>
       </c>
       <c r="AA29" t="n">
-        <v>73.98999786376953</v>
+        <v>92.87000274658205</v>
       </c>
       <c r="AB29" t="n">
-        <v>64.65000152587891</v>
+        <v>81.67938995361328</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -6638,116 +7296,116 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>VDC</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF29" t="n">
-        <v>0.9589203667660098</v>
+        <v>0.8294130881072286</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.421055935901568</v>
+        <v>0.3427539858289564</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>12.66999816894531</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.9558327992757162</v>
+        <v>0.9605842659822892</v>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>-2.4882150010950523</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK29" t="n">
-        <v>1.217959158427607</v>
+        <v>1.09219457481854</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.2524053597753939</v>
+        <v>0.4056387404244512</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.2145119699689571</v>
+        <v>0.395151352260812</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EXLS</t>
+          <t>SAFT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EXLS</t>
+          <t>SAFT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1910362555375287</v>
+        <v>-0.0035230638752073</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0020834021674651</v>
+        <v>-0.0001008316155631</v>
       </c>
       <c r="E30" t="n">
-        <v>1.211032873955541</v>
+        <v>0.990765922040869</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>143.6704419059265</v>
+        <v>85.07836822628617</v>
       </c>
       <c r="H30" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0020834021674651</v>
+        <v>-0.0001008316155631</v>
       </c>
       <c r="J30" t="n">
-        <v>1.211032873955541</v>
+        <v>0.990765922040869</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5206997944766</v>
+        <v>78.86851247470017</v>
       </c>
       <c r="L30" t="n">
-        <v>197.8599102521266</v>
+        <v>70.1913751463324</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>193.095160780922</v>
+        <v>101.3942417724614</v>
       </c>
       <c r="O30" t="n">
-        <v>151.0184201697806</v>
+        <v>85.47169831616188</v>
       </c>
       <c r="P30" t="n">
-        <v>155.7352396804162</v>
+        <v>99.14585121789236</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.5859364147177</v>
+        <v>87.81066938644045</v>
       </c>
       <c r="R30" t="n">
-        <v>141.5794850304013</v>
+        <v>90.40302945697118</v>
       </c>
       <c r="S30" t="n">
-        <v>7.077877325007438</v>
+        <v>4.371410880460593</v>
       </c>
       <c r="T30" t="n">
-        <v>156.6427141173538</v>
+        <v>100.8353622506</v>
       </c>
       <c r="U30" t="n">
-        <v>144.6143252660358</v>
+        <v>94.3230158185202</v>
       </c>
       <c r="V30" t="n">
-        <v>127.4237303803864</v>
+        <v>81.66020769604999</v>
       </c>
       <c r="W30" t="n">
-        <v>142.25</v>
+        <v>93.38999938964844</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -6760,13 +7418,13 @@
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>154.9799957275391</v>
+        <v>94.48000335693359</v>
       </c>
       <c r="AA30" t="n">
-        <v>154.9799957275391</v>
+        <v>93.18000030517578</v>
       </c>
       <c r="AB30" t="n">
-        <v>109.8499984741211</v>
+        <v>87.98000335693359</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6784,16 +7442,16 @@
         </is>
       </c>
       <c r="AF30" t="n">
-        <v>0.9749034584209318</v>
+        <v>0.4544963831202809</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.3739733192451888</v>
+        <v>0.4240026992554046</v>
       </c>
       <c r="AH30" t="n">
-        <v>29.97999572753906</v>
+        <v>14.80000305175781</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.2314880273457083</v>
+        <v>0.3060804199877723</v>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
@@ -6801,90 +7459,90 @@
         </is>
       </c>
       <c r="AK30" t="n">
-        <v>1.342473222586243</v>
+        <v>1.226187592021439</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.247948680453263</v>
+        <v>0.8445070456167294</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.390930827782964</v>
+        <v>0.751594127905226</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>MANT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>MANT</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1303016154873205</v>
+        <v>-0.1085190258769254</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0019460898060505</v>
+        <v>-0.0162762557367314</v>
       </c>
       <c r="E31" t="n">
-        <v>1.195860815357377</v>
+        <v>0.2209684048182522</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>249.1340548424751</v>
+        <v>78.47977052326388</v>
       </c>
       <c r="H31" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0019460898060505</v>
+        <v>-0.0162762557367314</v>
       </c>
       <c r="J31" t="n">
-        <v>1.195860815357377</v>
+        <v>0.2209684048182522</v>
       </c>
       <c r="K31" t="n">
-        <v>394.0538566058578</v>
+        <v>153.6975234678773</v>
       </c>
       <c r="L31" t="n">
-        <v>308.2857142610639</v>
+        <v>114.7183422885</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>315.3807431389832</v>
+        <v>96.7136560206405</v>
       </c>
       <c r="O31" t="n">
-        <v>255.6146375455682</v>
+        <v>74.57294864503801</v>
       </c>
       <c r="P31" t="n">
-        <v>268.7469960594998</v>
+        <v>103.0466027153237</v>
       </c>
       <c r="Q31" t="n">
-        <v>229.6012297288847</v>
+        <v>94.616779274759</v>
       </c>
       <c r="R31" t="n">
-        <v>249.6996933467804</v>
+        <v>90.8864284697033</v>
       </c>
       <c r="S31" t="n">
-        <v>9.523651356359712</v>
+        <v>6.080087122810189</v>
       </c>
       <c r="T31" t="n">
-        <v>255.4028969258461</v>
+        <v>95.9868709545588</v>
       </c>
       <c r="U31" t="n">
-        <v>242.5020633273654</v>
+        <v>95.3018251146589</v>
       </c>
       <c r="V31" t="n">
-        <v>230.652390634061</v>
+        <v>78.72625422408292</v>
       </c>
       <c r="W31" t="n">
-        <v>250.3500061035156</v>
+        <v>95.56999969482422</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -6893,135 +7551,135 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z31" t="n">
-        <v>275.1300048828125</v>
+        <v>95.98000335693359</v>
       </c>
       <c r="AA31" t="n">
-        <v>275.1300048828125</v>
+        <v>94.73000335693359</v>
       </c>
       <c r="AB31" t="n">
-        <v>197.2100067138672</v>
+        <v>92</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>VIS</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="AF31" t="n">
-        <v>0.972181583829963</v>
+        <v>0.5171584908354063</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.4428008992317797</v>
+        <v>0.3683446035966851</v>
       </c>
       <c r="AH31" t="n">
-        <v>43.02998352050781</v>
+        <v>1.900001525878906</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.083197843414197</v>
+        <v>2.105257451703964</v>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>-5.554050640692836</t>
+          <t>-6.166308229659177</t>
         </is>
       </c>
       <c r="AK31" t="n">
-        <v>1.13179765068934</v>
+        <v>1.820362944633907</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.574011771515288</v>
+        <v>1.608219357106487</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.231418840603475</v>
+        <v>1.200359345556353</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SNEX</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SNEX</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.003872173850005</v>
+        <v>-0.070466830331226</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0005522519037621</v>
+        <v>-0.0009485470777965</v>
       </c>
       <c r="E32" t="n">
-        <v>1.052105243992334</v>
+        <v>0.9163950358222208</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>73.50427797195039</v>
+        <v>71.27862872986924</v>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0005522519037621</v>
+        <v>-0.0009485470777965</v>
       </c>
       <c r="J32" t="n">
-        <v>1.052105243992334</v>
+        <v>0.9163950358222208</v>
       </c>
       <c r="K32" t="n">
-        <v>54.72739129328192</v>
+        <v>86.86406228185224</v>
       </c>
       <c r="L32" t="n">
-        <v>33.72719476292318</v>
+        <v>67.47422416364799</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>93.10266062718108</v>
+        <v>85.47580544252476</v>
       </c>
       <c r="O32" t="n">
-        <v>67.85057482983031</v>
+        <v>70.81190512626426</v>
       </c>
       <c r="P32" t="n">
-        <v>80.35457337973629</v>
+        <v>85.52514987241526</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.01815801110963</v>
+        <v>74.07940456670042</v>
       </c>
       <c r="R32" t="n">
-        <v>73.76277781289721</v>
+        <v>79.11912678915357</v>
       </c>
       <c r="S32" t="n">
-        <v>3.29589778341954</v>
+        <v>3.203011541630844</v>
       </c>
       <c r="T32" t="n">
-        <v>79.90160437321423</v>
+        <v>87.1334516049227</v>
       </c>
       <c r="U32" t="n">
-        <v>75.45988119216193</v>
+        <v>80.60642808581156</v>
       </c>
       <c r="V32" t="n">
-        <v>67.17098224605813</v>
+        <v>72.71310370589188</v>
       </c>
       <c r="W32" t="n">
-        <v>79.30000305175781</v>
+        <v>83.58999633789062</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -7030,135 +7688,135 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z32" t="n">
-        <v>81.05000305175781</v>
+        <v>82.98999786376953</v>
       </c>
       <c r="AA32" t="n">
-        <v>77.5</v>
+        <v>82.36000061035156</v>
       </c>
       <c r="AB32" t="n">
-        <v>70.47000122070312</v>
+        <v>77.16622924804688</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>VFH</t>
+          <t>VDC</t>
         </is>
       </c>
       <c r="AF32" t="n">
-        <v>0.7807630236087097</v>
+        <v>0.4387229025648065</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.3719490336517302</v>
+        <v>0.3711061230820871</v>
       </c>
       <c r="AH32" t="n">
-        <v>11.10000610351562</v>
+        <v>11.51000213623047</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.8</v>
+        <v>0.7170946793765771</v>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>-5.692129772713492</t>
+          <t>-2.4882150010950523</t>
         </is>
       </c>
       <c r="AK32" t="n">
-        <v>1.221492111907224</v>
+        <v>0.6737761406688946</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.6901310111875059</v>
+        <v>1.039168155130993</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.425311393000956</v>
+        <v>0.8072045354673919</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>FCN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UTHR</t>
+          <t>FCN</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.1018315800379532</v>
+        <v>-0.0121394304622625</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0030638020412452</v>
+        <v>-0.0004361089890624</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7540455750772554</v>
+        <v>0.9606637969331624</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>187.2454139578555</v>
+        <v>164.512597288219</v>
       </c>
       <c r="H33" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0030638020412452</v>
+        <v>-0.0004361089890624</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7540455750772554</v>
+        <v>0.9606637969331624</v>
       </c>
       <c r="K33" t="n">
-        <v>983.2323868166142</v>
+        <v>270.6489944114677</v>
       </c>
       <c r="L33" t="n">
-        <v>988.4868609072076</v>
+        <v>250.3156372278555</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>244.6211933999786</v>
+        <v>204.2407304724124</v>
       </c>
       <c r="O33" t="n">
-        <v>185.0906486899365</v>
+        <v>168.8831960742722</v>
       </c>
       <c r="P33" t="n">
-        <v>259.7558918756173</v>
+        <v>186.2566424220342</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4845825739465</v>
+        <v>159.3876925628567</v>
       </c>
       <c r="R33" t="n">
-        <v>211.225952027336</v>
+        <v>168.6661505926223</v>
       </c>
       <c r="S33" t="n">
-        <v>24.26496992414064</v>
+        <v>8.795245914705959</v>
       </c>
       <c r="T33" t="n">
-        <v>249.6464491284888</v>
+        <v>194.6869900058902</v>
       </c>
       <c r="U33" t="n">
-        <v>234.0655158512176</v>
+        <v>177.0373412843735</v>
       </c>
       <c r="V33" t="n">
-        <v>162.6960121790547</v>
+        <v>151.0756587632104</v>
       </c>
       <c r="W33" t="n">
-        <v>237.1300048828125</v>
+        <v>186.8500061035156</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -7171,13 +7829,13 @@
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>236.0599975585937</v>
+        <v>172.6900024414062</v>
       </c>
       <c r="AA33" t="n">
-        <v>218.3800048828125</v>
+        <v>170.3099975585938</v>
       </c>
       <c r="AB33" t="n">
-        <v>212.6199951171875</v>
+        <v>147.3800048828125</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -7186,116 +7844,116 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>VIS</t>
         </is>
       </c>
       <c r="AF33" t="n">
-        <v>0.9303111599101656</v>
+        <v>0.9753041821310164</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.425934448125463</v>
+        <v>0.4003315191414348</v>
       </c>
       <c r="AH33" t="n">
-        <v>63.08999633789063</v>
+        <v>30.8599853515625</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.7026473238709003</v>
+        <v>2.273818753584779</v>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>-5.554050640692836</t>
         </is>
       </c>
       <c r="AK33" t="n">
-        <v>1.285718221916528</v>
+        <v>0.9897583233970544</v>
       </c>
       <c r="AL33" t="n">
-        <v>4.146385385951131</v>
+        <v>1.448482662941564</v>
       </c>
       <c r="AM33" t="n">
-        <v>4.16854400772989</v>
+        <v>1.339660845872168</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>SNEX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>SNEX</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.0076098913706336</v>
+        <v>0.003872173850005</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0002182331646753</v>
+        <v>0.0005522519037621</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9801206111857896</v>
+        <v>1.052105243992334</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>738.8506825786008</v>
+        <v>73.50427797195039</v>
       </c>
       <c r="H34" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0002182331646753</v>
+        <v>0.0005522519037621</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9801206111857896</v>
+        <v>1.052105243992334</v>
       </c>
       <c r="K34" t="n">
-        <v>10838.92965723667</v>
+        <v>54.72739129328192</v>
       </c>
       <c r="L34" t="n">
-        <v>11003.96083266044</v>
+        <v>33.72719476292318</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>906.6714192107772</v>
+        <v>93.10266062718108</v>
       </c>
       <c r="O34" t="n">
-        <v>750.8966536096981</v>
+        <v>67.85057482983031</v>
       </c>
       <c r="P34" t="n">
-        <v>839.5976761330463</v>
+        <v>80.35457337973629</v>
       </c>
       <c r="Q34" t="n">
-        <v>829.8329108194881</v>
+        <v>71.01815801110963</v>
       </c>
       <c r="R34" t="n">
-        <v>833.9667043534536</v>
+        <v>73.76277781289721</v>
       </c>
       <c r="S34" t="n">
-        <v>2.815485889796369</v>
+        <v>3.29589778341954</v>
       </c>
       <c r="T34" t="n">
-        <v>835.4203356695372</v>
+        <v>79.90160437321423</v>
       </c>
       <c r="U34" t="n">
-        <v>832.6266232445126</v>
+        <v>75.45988119216193</v>
       </c>
       <c r="V34" t="n">
-        <v>828.3357325738608</v>
+        <v>67.17098224605813</v>
       </c>
       <c r="W34" t="n">
-        <v>834.0999755859375</v>
+        <v>79.30000305175781</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -7304,21 +7962,21 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z34" t="n">
-        <v>862.8699951171875</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="AA34" t="n">
-        <v>862.8699951171875</v>
+        <v>77.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>737.8900146484375</v>
+        <v>70.47000122070312</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -7332,16 +7990,16 @@
         </is>
       </c>
       <c r="AF34" t="n">
-        <v>0.4680113008423242</v>
+        <v>0.7807630236087097</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.4650288070845225</v>
+        <v>0.3719490336517302</v>
       </c>
       <c r="AH34" t="n">
-        <v>9.0999755859375</v>
+        <v>11.10000610351562</v>
       </c>
       <c r="AI34" t="n">
-        <v>4.249453364991213</v>
+        <v>0.8</v>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
@@ -7349,34 +8007,34 @@
         </is>
       </c>
       <c r="AK34" t="n">
-        <v>1.522722136897645</v>
+        <v>1.221492111907224</v>
       </c>
       <c r="AL34" t="n">
-        <v>12.99476078946358</v>
+        <v>0.6901310111875059</v>
       </c>
       <c r="AM34" t="n">
-        <v>13.19261617881046</v>
+        <v>0.425311393000956</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>EXLS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>EXLS</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0391774219103324</v>
+        <v>0.1910362555375287</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000457598234286</v>
+        <v>0.0020834021674651</v>
       </c>
       <c r="E35" t="n">
-        <v>1.042987726309494</v>
+        <v>1.211032873955541</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -7384,55 +8042,55 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>176.7364170052973</v>
+        <v>143.6704419059265</v>
       </c>
       <c r="H35" t="n">
         <v>84</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000457598234286</v>
+        <v>0.0020834021674651</v>
       </c>
       <c r="J35" t="n">
-        <v>1.042987726309494</v>
+        <v>1.211032873955541</v>
       </c>
       <c r="K35" t="n">
-        <v>329.3931554304485</v>
+        <v>177.5206997944766</v>
       </c>
       <c r="L35" t="n">
-        <v>217.2348035570339</v>
+        <v>197.8599102521266</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>215.342447975407</v>
+        <v>193.095160780922</v>
       </c>
       <c r="O35" t="n">
-        <v>178.0099228428525</v>
+        <v>151.0184201697806</v>
       </c>
       <c r="P35" t="n">
-        <v>196.232591318746</v>
+        <v>155.7352396804162</v>
       </c>
       <c r="Q35" t="n">
-        <v>185.7893514216742</v>
+        <v>132.5859364147177</v>
       </c>
       <c r="R35" t="n">
-        <v>184.4030776856437</v>
+        <v>141.5794850304013</v>
       </c>
       <c r="S35" t="n">
-        <v>5.914756816551099</v>
+        <v>7.077877325007438</v>
       </c>
       <c r="T35" t="n">
-        <v>187.7983468941429</v>
+        <v>156.6427141173538</v>
       </c>
       <c r="U35" t="n">
-        <v>186.7938491579086</v>
+        <v>144.6143252660358</v>
       </c>
       <c r="V35" t="n">
-        <v>172.5735640525415</v>
+        <v>127.4237303803864</v>
       </c>
       <c r="W35" t="n">
-        <v>187.0700073242188</v>
+        <v>142.25</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -7441,21 +8099,21 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>189.8300018310547</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="AA35" t="n">
-        <v>189.8300018310547</v>
+        <v>154.9799957275391</v>
       </c>
       <c r="AB35" t="n">
-        <v>165.8500061035156</v>
+        <v>109.8499984741211</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -7469,16 +8127,16 @@
         </is>
       </c>
       <c r="AF35" t="n">
-        <v>0.8641512025809797</v>
+        <v>0.9749034584209318</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.4822924374006571</v>
+        <v>0.3739733192451888</v>
       </c>
       <c r="AH35" t="n">
-        <v>2.819992065429688</v>
+        <v>29.97999572753906</v>
       </c>
       <c r="AI35" t="n">
-        <v>5.567395880115361</v>
+        <v>0.2314880273457083</v>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
@@ -7486,90 +8144,90 @@
         </is>
       </c>
       <c r="AK35" t="n">
-        <v>2.276459869347291</v>
+        <v>1.342473222586243</v>
       </c>
       <c r="AL35" t="n">
-        <v>1.760801531693767</v>
+        <v>1.247948680453263</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.161248703970676</v>
+        <v>1.390930827782964</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CYTK</t>
+          <t>CEIX</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CYTK</t>
+          <t>CEIX</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3255823820832559</v>
+        <v>0.3314635949763004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0040345727278463</v>
+        <v>0.0034138948786559</v>
       </c>
       <c r="E36" t="n">
-        <v>1.448362953632182</v>
+        <v>1.368264886148827</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>45.24783612122645</v>
+        <v>55.1644788371652</v>
       </c>
       <c r="H36" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0040345727278463</v>
+        <v>0.0034138948786559</v>
       </c>
       <c r="J36" t="n">
-        <v>1.448362953632182</v>
+        <v>1.368264886148827</v>
       </c>
       <c r="K36" t="n">
-        <v>45.59474932409967</v>
+        <v>45.35421358756337</v>
       </c>
       <c r="L36" t="n">
-        <v>51.463280007163</v>
+        <v>59.96598132246007</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>74.19117687847279</v>
+        <v>99.96502636509926</v>
       </c>
       <c r="O36" t="n">
-        <v>43.9693350021365</v>
+        <v>55.49343747225468</v>
       </c>
       <c r="P36" t="n">
-        <v>47.61456090256825</v>
+        <v>57.50048681030728</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.88556814055411</v>
+        <v>43.98744871208419</v>
       </c>
       <c r="R36" t="n">
-        <v>40.76492084018768</v>
+        <v>50.24547605665903</v>
       </c>
       <c r="S36" t="n">
-        <v>3.424820031190287</v>
+        <v>3.627505376824125</v>
       </c>
       <c r="T36" t="n">
-        <v>49.20800344666027</v>
+        <v>56.25885248478616</v>
       </c>
       <c r="U36" t="n">
-        <v>44.04678579360719</v>
+        <v>50.12315059843517</v>
       </c>
       <c r="V36" t="n">
-        <v>33.91528077780711</v>
+        <v>42.99046530301078</v>
       </c>
       <c r="W36" t="n">
-        <v>43.16999816894531</v>
+        <v>55.88999938964844</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -7582,13 +8240,13 @@
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>47.90000152587891</v>
+        <v>59.38000106811523</v>
       </c>
       <c r="AA36" t="n">
-        <v>47.90000152587891</v>
+        <v>55.2599983215332</v>
       </c>
       <c r="AB36" t="n">
-        <v>30.13999938964844</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7597,60 +8255,60 @@
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>VDE</t>
         </is>
       </c>
       <c r="AF36" t="n">
-        <v>0.9938321013510342</v>
+        <v>0.9260280606418284</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.347079503863166</v>
+        <v>0.5200597996983751</v>
       </c>
       <c r="AH36" t="n">
-        <v>12.59999847412109</v>
+        <v>19.18000030517578</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.2833327379175505</v>
+        <v>1.723149046464921</v>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>-1.114741987155641</t>
         </is>
       </c>
       <c r="AK36" t="n">
-        <v>1.731017840562648</v>
+        <v>1.894000502883219</v>
       </c>
       <c r="AL36" t="n">
-        <v>1.056167506555481</v>
+        <v>0.81149067960025</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.192107532776861</v>
+        <v>1.072928645148036</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AZO</t>
+          <t>BANF</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AZO</t>
+          <t>BANF</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1232905816232724</v>
+        <v>0.0159532857241367</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0013850344310528</v>
+        <v>0.0001884388176169</v>
       </c>
       <c r="E37" t="n">
-        <v>1.13579745337269</v>
+        <v>1.017485856511175</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -7658,55 +8316,55 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2139.605950827909</v>
+        <v>72.93347733076482</v>
       </c>
       <c r="H37" t="n">
         <v>84</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0013850344310528</v>
+        <v>0.0001884388176169</v>
       </c>
       <c r="J37" t="n">
-        <v>1.13579745337269</v>
+        <v>1.017485856511175</v>
       </c>
       <c r="K37" t="n">
-        <v>28886.40328568764</v>
+        <v>299.2350306350475</v>
       </c>
       <c r="L37" t="n">
-        <v>22623.4987086735</v>
+        <v>220.04342846292</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2769.668969497622</v>
+        <v>107.3601514984853</v>
       </c>
       <c r="O37" t="n">
-        <v>2137.710072883757</v>
+        <v>74.48246646348936</v>
       </c>
       <c r="P37" t="n">
-        <v>2275.068436195766</v>
+        <v>100.8773871415487</v>
       </c>
       <c r="Q37" t="n">
-        <v>1981.125512877212</v>
+        <v>90.0944725291256</v>
       </c>
       <c r="R37" t="n">
-        <v>2064.614571223183</v>
+        <v>89.26472215803842</v>
       </c>
       <c r="S37" t="n">
-        <v>105.2269324862913</v>
+        <v>5.806332491755132</v>
       </c>
       <c r="T37" t="n">
-        <v>2246.688097381345</v>
+        <v>100.4269559575319</v>
       </c>
       <c r="U37" t="n">
-        <v>2113.906805129279</v>
+        <v>95.26071424332876</v>
       </c>
       <c r="V37" t="n">
-        <v>1854.160706250601</v>
+        <v>77.65205717452815</v>
       </c>
       <c r="W37" t="n">
-        <v>2175.340087890625</v>
+        <v>88.25</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -7715,79 +8373,79 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>2267.39990234375</v>
+        <v>96.98999786376952</v>
       </c>
       <c r="AA37" t="n">
-        <v>2267.39990234375</v>
+        <v>86.81999969482422</v>
       </c>
       <c r="AB37" t="n">
-        <v>1612.329956054688</v>
+        <v>77.37999725341797</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>SP500</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>VFH</t>
         </is>
       </c>
       <c r="AF37" t="n">
-        <v>0.9877860387613956</v>
+        <v>0.8270121932052892</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.3943025853634108</v>
+        <v>0.5355063709184559</v>
       </c>
       <c r="AH37" t="n">
-        <v>506.8399658203125</v>
+        <v>20.2300033569336</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.7475545112478634</v>
+        <v>0.1759765001110655</v>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>-8.056900017144713</t>
+          <t>-5.692129772713492</t>
         </is>
       </c>
       <c r="AK37" t="n">
-        <v>0.9221551627253396</v>
+        <v>1.588770760193912</v>
       </c>
       <c r="AL37" t="n">
-        <v>13.27902862016306</v>
+        <v>3.390765219660595</v>
       </c>
       <c r="AM37" t="n">
-        <v>10.39998243705009</v>
+        <v>2.493409954254051</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HSY</t>
+          <t>MTOR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HSY</t>
+          <t>MTOR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1013431930052404</v>
+        <v>-0.0942132596669551</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0011498334025676</v>
+        <v>-0.0011772991364971</v>
       </c>
       <c r="E38" t="n">
-        <v>1.111514947350854</v>
+        <v>0.8972907547217707</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -7795,55 +8453,55 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>212.0040629510094</v>
+        <v>27.45117002337685</v>
       </c>
       <c r="H38" t="n">
         <v>84</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0011498334025676</v>
+        <v>-0.0011772991364971</v>
       </c>
       <c r="J38" t="n">
-        <v>1.111514947350854</v>
+        <v>0.8972907547217707</v>
       </c>
       <c r="K38" t="n">
-        <v>181.3224356130939</v>
+        <v>36.83776868174412</v>
       </c>
       <c r="L38" t="n">
-        <v>98.10158063933028</v>
+        <v>24.27481224534256</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>259.6137798796703</v>
+        <v>42.85940653336887</v>
       </c>
       <c r="O38" t="n">
-        <v>220.7424519514529</v>
+        <v>25.35510918309376</v>
       </c>
       <c r="P38" t="n">
-        <v>230.80704493134</v>
+        <v>36.36677998406367</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.7950403534876</v>
+        <v>35.95224484427564</v>
       </c>
       <c r="R38" t="n">
-        <v>217.1706176031203</v>
+        <v>36.08428569067093</v>
       </c>
       <c r="S38" t="n">
-        <v>6.818213664109785</v>
+        <v>0.1412471466963717</v>
       </c>
       <c r="T38" t="n">
-        <v>226.9280557371623</v>
+        <v>36.44275473550216</v>
       </c>
       <c r="U38" t="n">
-        <v>216.3615480453249</v>
+        <v>36.1974997898889</v>
       </c>
       <c r="V38" t="n">
-        <v>203.5341902749008</v>
+        <v>35.80179139727818</v>
       </c>
       <c r="W38" t="n">
-        <v>217.8699951171875</v>
+        <v>36.33000183105469</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -7852,135 +8510,135 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>231.6000061035156</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="AA38" t="n">
-        <v>231.6000061035156</v>
+        <v>36.27999877929688</v>
       </c>
       <c r="AB38" t="n">
-        <v>180.5800018310547</v>
+        <v>32.93000030517578</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>SP500</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>VDC</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF38" t="n">
-        <v>0.9874968903120755</v>
+        <v>0.3592912991498798</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.4465475255151344</v>
+        <v>0.4386076928672209</v>
       </c>
       <c r="AH38" t="n">
-        <v>23.66999816894531</v>
+        <v>0.5900001525878906</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.4152924408069173</v>
+        <v>5.898315714608994</v>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>-2.4882150010950523</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK38" t="n">
-        <v>1.167256115413882</v>
+        <v>1.503828928492396</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.8322506066774571</v>
+        <v>1.013976515967456</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.4502757738006263</v>
+        <v>0.6681753653145314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MTOR</t>
+          <t>MGPI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MTOR</t>
+          <t>MGPI</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.0942132596669551</v>
+        <v>-0.0137836545860796</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0011772991364971</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8972907547217707</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>27.45117002337685</v>
+        <v>92.863191466103</v>
       </c>
       <c r="H39" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0011772991364971</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8972907547217707</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>36.83776868174412</v>
+        <v>132.9968876056836</v>
       </c>
       <c r="L39" t="n">
-        <v>24.27481224534256</v>
+        <v>101.4309139218916</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>42.85940653336887</v>
+        <v>119.1300619224202</v>
       </c>
       <c r="O39" t="n">
-        <v>25.35510918309376</v>
+        <v>84.96587620141032</v>
       </c>
       <c r="P39" t="n">
-        <v>36.36677998406367</v>
+        <v>102.5859242572977</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.95224484427564</v>
+        <v>89.88008382990614</v>
       </c>
       <c r="R39" t="n">
-        <v>36.08428569067093</v>
+        <v>95.29198570856973</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1412471466963717</v>
+        <v>3.646969274364006</v>
       </c>
       <c r="T39" t="n">
-        <v>36.44275473550216</v>
+        <v>105.0144410017143</v>
       </c>
       <c r="U39" t="n">
-        <v>36.1974997898889</v>
+        <v>97.44726241581024</v>
       </c>
       <c r="V39" t="n">
-        <v>35.80179139727818</v>
+        <v>87.99804715984172</v>
       </c>
       <c r="W39" t="n">
-        <v>36.33000183105469</v>
+        <v>102.4400024414062</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -7993,13 +8651,13 @@
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>36.29999923706055</v>
+        <v>104</v>
       </c>
       <c r="AA39" t="n">
-        <v>36.27999877929688</v>
+        <v>104</v>
       </c>
       <c r="AB39" t="n">
-        <v>32.93000030517578</v>
+        <v>76.68000030517578</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -8017,16 +8675,16 @@
         </is>
       </c>
       <c r="AF39" t="n">
-        <v>0.3592912991498798</v>
+        <v>0.8356693549078065</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.4386076928672209</v>
+        <v>0.4739712966756328</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.5900001525878906</v>
+        <v>15.62999725341797</v>
       </c>
       <c r="AI39" t="n">
-        <v>5.898315714608994</v>
+        <v>1.44849718473828</v>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
@@ -8034,90 +8692,90 @@
         </is>
       </c>
       <c r="AK39" t="n">
-        <v>1.503828928492396</v>
+        <v>1.406357073435691</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.013976515967456</v>
+        <v>1.298290554822617</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.6681753653145314</v>
+        <v>0.9901494680255224</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>TAP</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>TAP</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.2196391368038932</v>
+        <v>-0.133559460968584</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0035519186205754</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.385689073448017</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>68.49587786268265</v>
+        <v>44.57405999890079</v>
       </c>
       <c r="H40" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0035519186205754</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.385689073448017</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>78.41755338951265</v>
+        <v>83.82844274773301</v>
       </c>
       <c r="L40" t="n">
-        <v>82.23624516034496</v>
+        <v>80.70848018764825</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>98.35455046792758</v>
+        <v>57.01631453562464</v>
       </c>
       <c r="O40" t="n">
-        <v>74.20863663974767</v>
+        <v>44.21611472331803</v>
       </c>
       <c r="P40" t="n">
-        <v>71.37735312669092</v>
+        <v>57.70241477712647</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.57344941918856</v>
+        <v>49.88845586994177</v>
       </c>
       <c r="R40" t="n">
-        <v>62.62035724094936</v>
+        <v>54.05595414600675</v>
       </c>
       <c r="S40" t="n">
-        <v>4.378497942870778</v>
+        <v>1.823230315559862</v>
       </c>
       <c r="T40" t="n">
-        <v>70.56410650548436</v>
+        <v>58.95757568232758</v>
       </c>
       <c r="U40" t="n">
-        <v>63.56877796233646</v>
+        <v>54.42301577613468</v>
       </c>
       <c r="V40" t="n">
-        <v>53.8633613552078</v>
+        <v>50.40949351488703</v>
       </c>
       <c r="W40" t="n">
-        <v>70.16000366210938</v>
+        <v>58.18000030517578</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -8126,21 +8784,21 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>74.08999633789062</v>
+        <v>57.45000076293945</v>
       </c>
       <c r="AA40" t="n">
-        <v>74.08999633789062</v>
+        <v>57.45000076293945</v>
       </c>
       <c r="AB40" t="n">
-        <v>50.18000030517578</v>
+        <v>57.45000076293945</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP500</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -8154,16 +8812,16 @@
         </is>
       </c>
       <c r="AF40" t="n">
-        <v>0.973190626172684</v>
+        <v>0.1229225154004058</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.3768209226127056</v>
+        <v>0.4055458335048223</v>
       </c>
       <c r="AH40" t="n">
-        <v>18.86999893188477</v>
+        <v>9.200000762939451</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.6422903387075352</v>
+        <v>0.2380433092496035</v>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
@@ -8171,90 +8829,90 @@
         </is>
       </c>
       <c r="AK40" t="n">
-        <v>1.473451313814642</v>
+        <v>0.8495979265280813</v>
       </c>
       <c r="AL40" t="n">
-        <v>1.117695970587055</v>
+        <v>1.440846378618453</v>
       </c>
       <c r="AM40" t="n">
-        <v>1.172124299713478</v>
+        <v>1.387220346584775</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>UTL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>UTL</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.0063994470968048</v>
+        <v>-0.0746133096854264</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0009167240284811</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.919084427582144</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>251.8254831224037</v>
+        <v>49.89885205490212</v>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.0009167240284811</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.919084427582144</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1871.173723354062</v>
+        <v>73.19589872367739</v>
       </c>
       <c r="L41" t="n">
-        <v>1679.846251771093</v>
+        <v>57.47703898294339</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>315.0415982337997</v>
+        <v>59.9968852847073</v>
       </c>
       <c r="O41" t="n">
-        <v>256.7723640143862</v>
+        <v>49.81719808471188</v>
       </c>
       <c r="P41" t="n">
-        <v>300.1501226049338</v>
+        <v>60.68218490945216</v>
       </c>
       <c r="Q41" t="n">
-        <v>253.8318756599079</v>
+        <v>50.95221436611406</v>
       </c>
       <c r="R41" t="n">
-        <v>269.70825558617</v>
+        <v>54.78373445783343</v>
       </c>
       <c r="S41" t="n">
-        <v>15.22093350938186</v>
+        <v>2.949225225809368</v>
       </c>
       <c r="T41" t="n">
-        <v>305.7309077176033</v>
+        <v>61.46080130224029</v>
       </c>
       <c r="U41" t="n">
-        <v>279.7813916887556</v>
+        <v>56.20650783417717</v>
       </c>
       <c r="V41" t="n">
-        <v>239.2663885674063</v>
+        <v>48.88528400621469</v>
       </c>
       <c r="W41" t="n">
-        <v>286.1499938964844</v>
+        <v>59.20000076293945</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -8263,79 +8921,79 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>292.75</v>
+        <v>58.86999893188477</v>
       </c>
       <c r="AA41" t="n">
-        <v>292.75</v>
+        <v>57.9900016784668</v>
       </c>
       <c r="AB41" t="n">
-        <v>234.5800018310547</v>
+        <v>57.9900016784668</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>SP500</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF41" t="n">
-        <v>0.4958362517553192</v>
+        <v>0.4540133484671562</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.4322596652717481</v>
+        <v>0.4869988916534943</v>
       </c>
       <c r="AH41" t="n">
-        <v>53.66999816894531</v>
+        <v>10.43999862670898</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.7149241879534884</v>
+        <v>0.2634099963351131</v>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK41" t="n">
-        <v>0.9830485548149224</v>
+        <v>0.831118781258548</v>
       </c>
       <c r="AL41" t="n">
-        <v>6.539135989046935</v>
+        <v>1.236417192235911</v>
       </c>
       <c r="AM41" t="n">
-        <v>5.870509479649969</v>
+        <v>0.9708959162535236</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>NTUS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>NTUS</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0973071120510265</v>
+        <v>-0.049144511392601</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0011060767093411</v>
+        <v>-0.0005997389570787</v>
       </c>
       <c r="E42" t="n">
-        <v>1.107054430684335</v>
+        <v>0.94630293278205</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -8343,55 +9001,55 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>317.2764770713699</v>
+        <v>24.12837760811261</v>
       </c>
       <c r="H42" t="n">
         <v>84</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0011060767093411</v>
+        <v>-0.0005997389570787</v>
       </c>
       <c r="J42" t="n">
-        <v>1.107054430684335</v>
+        <v>0.94630293278205</v>
       </c>
       <c r="K42" t="n">
-        <v>446.1355920214054</v>
+        <v>44.59590087788391</v>
       </c>
       <c r="L42" t="n">
-        <v>663.9547491623542</v>
+        <v>30.15814672022933</v>
       </c>
       <c r="M42" t="b">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>393.4190613716203</v>
+        <v>38.44916987630318</v>
       </c>
       <c r="O42" t="n">
-        <v>323.4936454035885</v>
+        <v>25.41097930619283</v>
       </c>
       <c r="P42" t="n">
-        <v>338.0495318513634</v>
+        <v>34.60124613677704</v>
       </c>
       <c r="Q42" t="n">
-        <v>300.6733333844128</v>
+        <v>31.20295784770245</v>
       </c>
       <c r="R42" t="n">
-        <v>320.9117293584915</v>
+        <v>32.61996029293726</v>
       </c>
       <c r="S42" t="n">
-        <v>8.56890124643599</v>
+        <v>0.990642921919888</v>
       </c>
       <c r="T42" t="n">
-        <v>337.2422235081034</v>
+        <v>33.63624887812956</v>
       </c>
       <c r="U42" t="n">
-        <v>318.9577784462581</v>
+        <v>32.41960336291601</v>
       </c>
       <c r="V42" t="n">
-        <v>303.7739268656195</v>
+        <v>30.63867444909749</v>
       </c>
       <c r="W42" t="n">
-        <v>326.489990234375</v>
+        <v>32.70000076293945</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -8400,135 +9058,135 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>339.9400024414062</v>
+        <v>33.93000030517578</v>
       </c>
       <c r="AA42" t="n">
-        <v>339.9400024414062</v>
+        <v>33.93000030517578</v>
       </c>
       <c r="AB42" t="n">
-        <v>204.6600036621093</v>
+        <v>29.70000076293945</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>SP500</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>VHT</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AF42" t="n">
-        <v>0.9987797202376012</v>
+        <v>0.1333149604532864</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.4607295380479723</v>
+        <v>0.4219494300562066</v>
       </c>
       <c r="AH42" t="n">
-        <v>40.13998413085938</v>
+        <v>2.780000686645508</v>
       </c>
       <c r="AI42" t="n">
-        <v>2.364972588148623</v>
+        <v>0.1942448856654552</v>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>-3.0195249679197076</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AK42" t="n">
-        <v>1.167083127988134</v>
+        <v>1.264166273985766</v>
       </c>
       <c r="AL42" t="n">
-        <v>1.366460244925553</v>
+        <v>1.363788985853073</v>
       </c>
       <c r="AM42" t="n">
-        <v>2.033614410921836</v>
+        <v>0.9222674622811956</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FCN</t>
+          <t>RGP</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FCN</t>
+          <t>RGP</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.0121394304622625</v>
+        <v>0.1166569767419503</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0004361089890624</v>
+        <v>0.0013144271458183</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9606637969331624</v>
+        <v>1.128453252463999</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>164.512597288219</v>
+        <v>18.36783713328869</v>
       </c>
       <c r="H43" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.0004361089890624</v>
+        <v>0.0013144271458183</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9606637969331624</v>
+        <v>1.128453252463999</v>
       </c>
       <c r="K43" t="n">
-        <v>270.6489944114677</v>
+        <v>4.158996496942209</v>
       </c>
       <c r="L43" t="n">
-        <v>250.3156372278555</v>
+        <v>4.656375391289179</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>204.2407304724124</v>
+        <v>24.97789118021714</v>
       </c>
       <c r="O43" t="n">
-        <v>168.8831960742722</v>
+        <v>18.99330078068009</v>
       </c>
       <c r="P43" t="n">
-        <v>186.2566424220342</v>
+        <v>21.02186313278509</v>
       </c>
       <c r="Q43" t="n">
-        <v>159.3876925628567</v>
+        <v>17.50380639093581</v>
       </c>
       <c r="R43" t="n">
-        <v>168.6661505926223</v>
+        <v>18.25144172093225</v>
       </c>
       <c r="S43" t="n">
-        <v>8.795245914705959</v>
+        <v>1.38521070592642</v>
       </c>
       <c r="T43" t="n">
-        <v>194.6869900058902</v>
+        <v>21.81643166191676</v>
       </c>
       <c r="U43" t="n">
-        <v>177.0373412843735</v>
+        <v>19.66011902642628</v>
       </c>
       <c r="V43" t="n">
-        <v>151.0756587632104</v>
+        <v>15.48102030907941</v>
       </c>
       <c r="W43" t="n">
-        <v>186.8500061035156</v>
+        <v>19.43000030517578</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -8537,21 +9195,21 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SLY</t>
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>172.6900024414062</v>
+        <v>20.15999984741211</v>
       </c>
       <c r="AA43" t="n">
-        <v>170.3099975585938</v>
+        <v>20.15999984741211</v>
       </c>
       <c r="AB43" t="n">
-        <v>147.3800048828125</v>
+        <v>15.44999980926514</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP600</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
@@ -8565,16 +9223,16 @@
         </is>
       </c>
       <c r="AF43" t="n">
-        <v>0.9753041821310164</v>
+        <v>0.6595913617816166</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.4003315191414348</v>
+        <v>0.375076544486274</v>
       </c>
       <c r="AH43" t="n">
-        <v>30.8599853515625</v>
+        <v>5.490001678466797</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.273818753584779</v>
+        <v>0.4590165101992744</v>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
@@ -8582,90 +9240,90 @@
         </is>
       </c>
       <c r="AK43" t="n">
-        <v>0.9897583233970544</v>
+        <v>1.88545513739826</v>
       </c>
       <c r="AL43" t="n">
-        <v>1.448482662941564</v>
+        <v>0.2140502538146812</v>
       </c>
       <c r="AM43" t="n">
-        <v>1.339660845872168</v>
+        <v>0.239648755437683</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MCK</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MCK</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0850169191341279</v>
+        <v>0.0973071120510265</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0038930621915713</v>
+        <v>0.0011060767093411</v>
       </c>
       <c r="E44" t="n">
-        <v>1.429702460231902</v>
+        <v>1.107054430684335</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>42.96154971726037</v>
+        <v>317.2764770713699</v>
       </c>
       <c r="H44" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0038930621915713</v>
+        <v>0.0011060767093411</v>
       </c>
       <c r="J44" t="n">
-        <v>1.429702460231902</v>
+        <v>1.107054430684335</v>
       </c>
       <c r="K44" t="n">
-        <v>38.81153794065421</v>
+        <v>446.1355920214054</v>
       </c>
       <c r="L44" t="n">
-        <v>35.8986841918307</v>
+        <v>663.9547491623542</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>54.61558365991468</v>
+        <v>393.4190613716203</v>
       </c>
       <c r="O44" t="n">
-        <v>43.06128992554149</v>
+        <v>323.4936454035885</v>
       </c>
       <c r="P44" t="n">
-        <v>45.84103835815711</v>
+        <v>338.0495318513634</v>
       </c>
       <c r="Q44" t="n">
-        <v>39.33572140728911</v>
+        <v>300.6733333844128</v>
       </c>
       <c r="R44" t="n">
-        <v>37.92115099467929</v>
+        <v>320.9117293584915</v>
       </c>
       <c r="S44" t="n">
-        <v>3.959943681738909</v>
+        <v>8.56890124643599</v>
       </c>
       <c r="T44" t="n">
-        <v>45.67115182947305</v>
+        <v>337.2422235081034</v>
       </c>
       <c r="U44" t="n">
-        <v>42.50343661838108</v>
+        <v>318.9577784462581</v>
       </c>
       <c r="V44" t="n">
-        <v>30.00126363120147</v>
+        <v>303.7739268656195</v>
       </c>
       <c r="W44" t="n">
-        <v>44.88999938964844</v>
+        <v>326.489990234375</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -8674,79 +9332,79 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>MDYG</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>39.5</v>
+        <v>339.9400024414062</v>
       </c>
       <c r="AA44" t="n">
-        <v>37.81999969482422</v>
+        <v>339.9400024414062</v>
       </c>
       <c r="AB44" t="n">
-        <v>36.77000045776367</v>
+        <v>204.6600036621093</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>SP400</t>
+          <t>SP500</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>VDC</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF44" t="n">
-        <v>0.270744014542481</v>
+        <v>0.9987797202376012</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.4233230191469613</v>
+        <v>0.4607295380479723</v>
       </c>
       <c r="AH44" t="n">
-        <v>10.83000183105469</v>
+        <v>40.13998413085938</v>
       </c>
       <c r="AI44" t="n">
-        <v>1.900276503864009</v>
+        <v>2.364972588148623</v>
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>-2.4882150010950523</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK44" t="n">
-        <v>1.356099657496707</v>
+        <v>1.167083127988134</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.8645920799367195</v>
+        <v>1.366460244925553</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.799703378924725</v>
+        <v>2.033614410921836</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RGP</t>
+          <t>HRB</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RGP</t>
+          <t>HRB</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.1166569767419503</v>
+        <v>-0.07888696817600831</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0013144271458183</v>
+        <v>-0.0009777659961783</v>
       </c>
       <c r="E45" t="n">
-        <v>1.128453252463999</v>
+        <v>0.9139325766890852</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -8754,55 +9412,55 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>18.36783713328869</v>
+        <v>29.47980495905169</v>
       </c>
       <c r="H45" t="n">
         <v>84</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0013144271458183</v>
+        <v>-0.0009777659961783</v>
       </c>
       <c r="J45" t="n">
-        <v>1.128453252463999</v>
+        <v>0.9139325766890852</v>
       </c>
       <c r="K45" t="n">
-        <v>4.158996496942209</v>
+        <v>16.70618644145343</v>
       </c>
       <c r="L45" t="n">
-        <v>4.656375391289179</v>
+        <v>13.29613958311702</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>24.97789118021714</v>
+        <v>39.60178785591341</v>
       </c>
       <c r="O45" t="n">
-        <v>18.99330078068009</v>
+        <v>29.04127122471956</v>
       </c>
       <c r="P45" t="n">
-        <v>21.02186313278509</v>
+        <v>40.46828852191325</v>
       </c>
       <c r="Q45" t="n">
-        <v>17.50380639093581</v>
+        <v>32.55921171202821</v>
       </c>
       <c r="R45" t="n">
-        <v>18.25144172093225</v>
+        <v>32.38615088992648</v>
       </c>
       <c r="S45" t="n">
-        <v>1.38521070592642</v>
+        <v>4.041068815993384</v>
       </c>
       <c r="T45" t="n">
-        <v>21.81643166191676</v>
+        <v>38.01523289227023</v>
       </c>
       <c r="U45" t="n">
-        <v>19.66011902642628</v>
+        <v>35.28722230214922</v>
       </c>
       <c r="V45" t="n">
-        <v>15.48102030907941</v>
+        <v>24.30401325793972</v>
       </c>
       <c r="W45" t="n">
-        <v>19.43000030517578</v>
+        <v>36.7599983215332</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -8811,135 +9469,135 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>20.15999984741211</v>
+        <v>36.83000183105469</v>
       </c>
       <c r="AA45" t="n">
-        <v>20.15999984741211</v>
+        <v>33.38000106811523</v>
       </c>
       <c r="AB45" t="n">
-        <v>15.44999980926514</v>
+        <v>26.22999954223633</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>VIS</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="AF45" t="n">
-        <v>0.6595913617816166</v>
+        <v>0.9233728980724356</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.375076544486274</v>
+        <v>0.4507763952228311</v>
       </c>
       <c r="AH45" t="n">
-        <v>5.490001678466797</v>
+        <v>5.310001373291016</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.4590165101992744</v>
+        <v>2.606400931044516</v>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>-5.554050640692836</t>
+          <t>-8.056900017144713</t>
         </is>
       </c>
       <c r="AK45" t="n">
-        <v>1.88545513739826</v>
+        <v>0.7353958926239439</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.2140502538146812</v>
+        <v>0.454466463663229</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.239648755437683</v>
+        <v>0.3617013109418025</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MGPI</t>
+          <t>HSY</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MGPI</t>
+          <t>HSY</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.0137836545860796</v>
+        <v>0.1013431930052404</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.0011498334025676</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>1.111514947350854</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>92.863191466103</v>
+        <v>212.0040629510094</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.0011498334025676</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>1.111514947350854</v>
       </c>
       <c r="K46" t="n">
-        <v>132.9968876056836</v>
+        <v>181.3224356130939</v>
       </c>
       <c r="L46" t="n">
-        <v>101.4309139218916</v>
+        <v>98.10158063933028</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>119.1300619224202</v>
+        <v>259.6137798796703</v>
       </c>
       <c r="O46" t="n">
-        <v>84.96587620141032</v>
+        <v>220.7424519514529</v>
       </c>
       <c r="P46" t="n">
-        <v>102.5859242572977</v>
+        <v>230.80704493134</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.88008382990614</v>
+        <v>205.7950403534876</v>
       </c>
       <c r="R46" t="n">
-        <v>95.29198570856973</v>
+        <v>217.1706176031203</v>
       </c>
       <c r="S46" t="n">
-        <v>3.646969274364006</v>
+        <v>6.818213664109785</v>
       </c>
       <c r="T46" t="n">
-        <v>105.0144410017143</v>
+        <v>226.9280557371623</v>
       </c>
       <c r="U46" t="n">
-        <v>97.44726241581024</v>
+        <v>216.3615480453249</v>
       </c>
       <c r="V46" t="n">
-        <v>87.99804715984172</v>
+        <v>203.5341902749008</v>
       </c>
       <c r="W46" t="n">
-        <v>102.4400024414062</v>
+        <v>217.8699951171875</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -8948,135 +9606,135 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>104</v>
+        <v>231.6000061035156</v>
       </c>
       <c r="AA46" t="n">
-        <v>104</v>
+        <v>231.6000061035156</v>
       </c>
       <c r="AB46" t="n">
-        <v>76.68000030517578</v>
+        <v>180.5800018310547</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP500</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>VDC</t>
         </is>
       </c>
       <c r="AF46" t="n">
-        <v>0.8356693549078065</v>
+        <v>0.9874968903120755</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.4739712966756328</v>
+        <v>0.4465475255151344</v>
       </c>
       <c r="AH46" t="n">
-        <v>15.62999725341797</v>
+        <v>23.66999816894531</v>
       </c>
       <c r="AI46" t="n">
-        <v>1.44849718473828</v>
+        <v>0.4152924408069173</v>
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>-2.4882150010950523</t>
         </is>
       </c>
       <c r="AK46" t="n">
-        <v>1.406357073435691</v>
+        <v>1.167256115413882</v>
       </c>
       <c r="AL46" t="n">
-        <v>1.298290554822617</v>
+        <v>0.8322506066774571</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.9901494680255224</v>
+        <v>0.4502757738006263</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ROG</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ROG</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.1805727081902145</v>
+        <v>0.0850169191341279</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0026383897841806</v>
+        <v>0.0038930621915713</v>
       </c>
       <c r="E47" t="n">
-        <v>1.274319373831329</v>
+        <v>1.429702460231902</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>279.8779484683661</v>
+        <v>42.96154971726037</v>
       </c>
       <c r="H47" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0026383897841806</v>
+        <v>0.0038930621915713</v>
       </c>
       <c r="J47" t="n">
-        <v>1.274319373831329</v>
+        <v>1.429702460231902</v>
       </c>
       <c r="K47" t="n">
-        <v>1081.758211631702</v>
+        <v>38.81153794065421</v>
       </c>
       <c r="L47" t="n">
-        <v>852.4256731381255</v>
+        <v>35.8986841918307</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>371.1661257938076</v>
+        <v>54.61558365991468</v>
       </c>
       <c r="O47" t="n">
-        <v>254.4047327127088</v>
+        <v>43.06128992554149</v>
       </c>
       <c r="P47" t="n">
-        <v>276.3310903646956</v>
+        <v>45.84103835815711</v>
       </c>
       <c r="Q47" t="n">
-        <v>256.366372345465</v>
+        <v>39.33572140728911</v>
       </c>
       <c r="R47" t="n">
-        <v>264.3081346542116</v>
+        <v>37.92115099467929</v>
       </c>
       <c r="S47" t="n">
-        <v>6.011477855242</v>
+        <v>3.959943681738909</v>
       </c>
       <c r="T47" t="n">
-        <v>263.7775160977704</v>
+        <v>45.67115182947305</v>
       </c>
       <c r="U47" t="n">
-        <v>260.0719442216177</v>
+        <v>42.50343661838108</v>
       </c>
       <c r="V47" t="n">
-        <v>252.2851789437276</v>
+        <v>30.00126363120147</v>
       </c>
       <c r="W47" t="n">
-        <v>263.2900085449219</v>
+        <v>44.88999938964844</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -9085,135 +9743,135 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>SLY</t>
+          <t>MDYG</t>
         </is>
       </c>
       <c r="Z47" t="n">
-        <v>274.510009765625</v>
+        <v>39.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>274.510009765625</v>
+        <v>37.81999969482422</v>
       </c>
       <c r="AB47" t="n">
-        <v>206.1300048828125</v>
+        <v>36.77000045776367</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>SP600</t>
+          <t>SP400</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>VDC</t>
         </is>
       </c>
       <c r="AF47" t="n">
-        <v>0.7408815232947069</v>
+        <v>0.270744014542481</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.4795247532453542</v>
+        <v>0.4233230191469613</v>
       </c>
       <c r="AH47" t="n">
-        <v>15.17999267578125</v>
+        <v>10.83000183105469</v>
       </c>
       <c r="AI47" t="n">
-        <v>2.287221210330145</v>
+        <v>1.900276503864009</v>
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>-6.166308229659177</t>
+          <t>-2.4882150010950523</t>
         </is>
       </c>
       <c r="AK47" t="n">
-        <v>1.027463656839788</v>
+        <v>1.356099657496707</v>
       </c>
       <c r="AL47" t="n">
-        <v>4.108618544281504</v>
+        <v>0.8645920799367195</v>
       </c>
       <c r="AM47" t="n">
-        <v>3.237592181522858</v>
+        <v>0.799703378924725</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0701880780254347</v>
+        <v>-0.0063994470968048</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0013853343409881</v>
+        <v>-0.0009167240284811</v>
       </c>
       <c r="E48" t="n">
-        <v>1.135828749052704</v>
+        <v>0.919084427582144</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>172.9842617963558</v>
+        <v>251.8254831224037</v>
       </c>
       <c r="H48" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0013853343409881</v>
+        <v>-0.0009167240284811</v>
       </c>
       <c r="J48" t="n">
-        <v>1.135828749052704</v>
+        <v>0.919084427582144</v>
       </c>
       <c r="K48" t="n">
-        <v>72.90071220788224</v>
+        <v>1871.173723354062</v>
       </c>
       <c r="L48" t="n">
-        <v>77.99108000249045</v>
+        <v>1679.846251771093</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>193.764720829556</v>
+        <v>315.0415982337997</v>
       </c>
       <c r="O48" t="n">
-        <v>172.5684075027718</v>
+        <v>256.7723640143862</v>
       </c>
       <c r="P48" t="n">
-        <v>178.1701107437524</v>
+        <v>300.1501226049338</v>
       </c>
       <c r="Q48" t="n">
-        <v>155.9065686264422</v>
+        <v>253.8318756599079</v>
       </c>
       <c r="R48" t="n">
-        <v>167.9994846525646</v>
+        <v>269.70825558617</v>
       </c>
       <c r="S48" t="n">
-        <v>5.085313045593872</v>
+        <v>15.22093350938186</v>
       </c>
       <c r="T48" t="n">
-        <v>175.2480360885721</v>
+        <v>305.7309077176033</v>
       </c>
       <c r="U48" t="n">
-        <v>165.5773023575071</v>
+        <v>279.7813916887556</v>
       </c>
       <c r="V48" t="n">
-        <v>157.8288585613769</v>
+        <v>239.2663885674063</v>
       </c>
       <c r="W48" t="n">
-        <v>170.9799957275391</v>
+        <v>286.1499938964844</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -9226,13 +9884,13 @@
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>177.6199951171875</v>
+        <v>292.75</v>
       </c>
       <c r="AA48" t="n">
-        <v>177.6199951171875</v>
+        <v>292.75</v>
       </c>
       <c r="AB48" t="n">
-        <v>156.8399963378906</v>
+        <v>234.5800018310547</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9241,39 +9899,39 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>VDC</t>
+          <t>VHT</t>
         </is>
       </c>
       <c r="AF48" t="n">
-        <v>0.8758422771167831</v>
+        <v>0.4958362517553192</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.3275392891788038</v>
+        <v>0.4322596652717481</v>
       </c>
       <c r="AH48" t="n">
-        <v>19.00999450683594</v>
+        <v>53.66999816894531</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.0452393928910557</v>
+        <v>0.7149241879534884</v>
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>-2.4882150010950523</t>
+          <t>-3.0195249679197076</t>
         </is>
       </c>
       <c r="AK48" t="n">
-        <v>1.091438151927048</v>
+        <v>0.9830485548149224</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.4263698329016884</v>
+        <v>6.539135989046935</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.4561415484345385</v>
+        <v>5.870509479649969</v>
       </c>
     </row>
   </sheetData>
